--- a/BackTest/2019-10-31 BackTest OGO.xlsx
+++ b/BackTest/2019-10-31 BackTest OGO.xlsx
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="J294" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="K294" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
@@ -10716,10 +10716,10 @@
         <v>0</v>
       </c>
       <c r="J295" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="K295" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -10759,10 +10759,10 @@
         <v>0</v>
       </c>
       <c r="J296" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="K296" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -10802,10 +10802,10 @@
         <v>0</v>
       </c>
       <c r="J297" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K297" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>22.4</v>
       </c>
       <c r="K298" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -10882,16 +10882,14 @@
         <v>22.87499999999998</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -10925,16 +10923,14 @@
         <v>22.83499999999998</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -10968,16 +10964,14 @@
         <v>22.81999999999998</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -11011,16 +11005,14 @@
         <v>22.77999999999998</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -11054,16 +11046,14 @@
         <v>22.75499999999998</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>22.9</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -11097,16 +11087,14 @@
         <v>22.73499999999998</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>22.9</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -11140,16 +11128,14 @@
         <v>22.72999999999998</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>22.9</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -11183,16 +11169,14 @@
         <v>22.72499999999997</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>22.9</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -11226,16 +11210,14 @@
         <v>22.72999999999998</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -11269,16 +11251,14 @@
         <v>22.74999999999998</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>23.4</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -11312,16 +11292,14 @@
         <v>22.77499999999997</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -11355,16 +11333,14 @@
         <v>22.77999999999998</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>23</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -11398,16 +11374,14 @@
         <v>22.82499999999997</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>23.7</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -11441,16 +11415,14 @@
         <v>22.87999999999997</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>23.6</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -11484,16 +11456,14 @@
         <v>22.94499999999998</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>23.7</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -11534,7 +11504,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -11575,7 +11545,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -11616,7 +11586,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -11657,7 +11627,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -11698,7 +11668,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -11739,7 +11709,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -11780,7 +11750,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -11821,7 +11791,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -11862,7 +11832,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -11903,7 +11873,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -11944,7 +11914,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -11985,7 +11955,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -12026,7 +11996,7 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -12067,7 +12037,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -12108,7 +12078,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -12149,7 +12119,7 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -12190,7 +12160,7 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -12231,7 +12201,7 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -12272,7 +12242,7 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -12313,7 +12283,7 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -12354,7 +12324,7 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -12395,7 +12365,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -12436,7 +12406,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -12477,7 +12447,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -12518,7 +12488,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -12559,7 +12529,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -12600,7 +12570,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -12641,7 +12611,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -12682,7 +12652,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -12723,7 +12693,7 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -12764,7 +12734,7 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -12805,7 +12775,7 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -12846,7 +12816,7 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -12887,7 +12857,7 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -12928,7 +12898,7 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -12969,7 +12939,7 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -13010,7 +12980,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>

--- a/BackTest/2019-10-31 BackTest OGO.xlsx
+++ b/BackTest/2019-10-31 BackTest OGO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M350"/>
+  <dimension ref="A1:M351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>24.3</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>37279</v>
       </c>
       <c r="G2" t="n">
-        <v>24.31000000000001</v>
+        <v>24.235</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>24.3</v>
       </c>
       <c r="F3" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G3" t="n">
-        <v>24.31000000000001</v>
+        <v>24.225</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>24.3</v>
       </c>
       <c r="C4" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="D4" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="E4" t="n">
         <v>24.3</v>
       </c>
       <c r="F4" t="n">
-        <v>19152</v>
+        <v>800</v>
       </c>
       <c r="G4" t="n">
-        <v>24.31000000000001</v>
+        <v>24.225</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="C5" t="n">
         <v>24.4</v>
@@ -547,13 +547,13 @@
         <v>24.4</v>
       </c>
       <c r="E5" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="F5" t="n">
-        <v>4000</v>
+        <v>19152</v>
       </c>
       <c r="G5" t="n">
-        <v>24.32500000000001</v>
+        <v>24.22166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>24.4</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="G6" t="n">
-        <v>24.32500000000001</v>
+        <v>24.21666666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="C7" t="n">
         <v>24.4</v>
@@ -617,13 +617,13 @@
         <v>24.4</v>
       </c>
       <c r="E7" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="F7" t="n">
-        <v>37008</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>24.31500000000001</v>
+        <v>24.21666666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="C8" t="n">
         <v>24.4</v>
@@ -652,13 +652,13 @@
         <v>24.4</v>
       </c>
       <c r="E8" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="F8" t="n">
-        <v>28000</v>
+        <v>37008</v>
       </c>
       <c r="G8" t="n">
-        <v>24.32500000000001</v>
+        <v>24.22</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>24.4</v>
       </c>
       <c r="C9" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="D9" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="E9" t="n">
         <v>24.4</v>
       </c>
       <c r="F9" t="n">
-        <v>36301.7473</v>
+        <v>28000</v>
       </c>
       <c r="G9" t="n">
-        <v>24.33000000000001</v>
+        <v>24.21833333333334</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="C10" t="n">
         <v>24.5</v>
@@ -722,13 +722,13 @@
         <v>24.5</v>
       </c>
       <c r="E10" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="F10" t="n">
-        <v>27509.2693</v>
+        <v>36301.7473</v>
       </c>
       <c r="G10" t="n">
-        <v>24.33500000000001</v>
+        <v>24.23166666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="C11" t="n">
         <v>24.5</v>
@@ -757,13 +757,13 @@
         <v>24.5</v>
       </c>
       <c r="E11" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="F11" t="n">
-        <v>2800</v>
+        <v>27509.2693</v>
       </c>
       <c r="G11" t="n">
-        <v>24.32500000000001</v>
+        <v>24.23333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="C12" t="n">
         <v>24.5</v>
@@ -792,13 +792,13 @@
         <v>24.5</v>
       </c>
       <c r="E12" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="F12" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="G12" t="n">
-        <v>24.33500000000001</v>
+        <v>24.23333333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>24.5</v>
       </c>
       <c r="F13" t="n">
-        <v>8111</v>
+        <v>2000</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34500000000001</v>
+        <v>24.23333333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>24.5</v>
       </c>
       <c r="F14" t="n">
-        <v>36841</v>
+        <v>8111</v>
       </c>
       <c r="G14" t="n">
-        <v>24.35500000000001</v>
+        <v>24.23333333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>24.5</v>
       </c>
       <c r="F15" t="n">
-        <v>45496</v>
+        <v>36841</v>
       </c>
       <c r="G15" t="n">
-        <v>24.36500000000001</v>
+        <v>24.23333333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>24.5</v>
       </c>
       <c r="F16" t="n">
-        <v>159</v>
+        <v>45496</v>
       </c>
       <c r="G16" t="n">
-        <v>24.37500000000001</v>
+        <v>24.23333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>24.5</v>
       </c>
       <c r="C17" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="D17" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E17" t="n">
         <v>24.5</v>
       </c>
       <c r="F17" t="n">
-        <v>40000</v>
+        <v>159</v>
       </c>
       <c r="G17" t="n">
-        <v>24.38000000000001</v>
+        <v>24.23333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="C18" t="n">
         <v>24.6</v>
@@ -1002,13 +1002,13 @@
         <v>24.6</v>
       </c>
       <c r="E18" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="F18" t="n">
-        <v>78450</v>
+        <v>40000</v>
       </c>
       <c r="G18" t="n">
-        <v>24.39000000000001</v>
+        <v>24.235</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>24.6</v>
       </c>
       <c r="F19" t="n">
-        <v>282</v>
+        <v>78450</v>
       </c>
       <c r="G19" t="n">
-        <v>24.41500000000001</v>
+        <v>24.245</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>24.6</v>
       </c>
       <c r="F20" t="n">
-        <v>10834</v>
+        <v>282</v>
       </c>
       <c r="G20" t="n">
-        <v>24.43000000000001</v>
+        <v>24.255</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>24.6</v>
       </c>
       <c r="F21" t="n">
-        <v>10981</v>
+        <v>10834</v>
       </c>
       <c r="G21" t="n">
-        <v>24.44500000000001</v>
+        <v>24.26499999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>24.6</v>
       </c>
       <c r="F22" t="n">
-        <v>19710.9756</v>
+        <v>10981</v>
       </c>
       <c r="G22" t="n">
-        <v>24.46</v>
+        <v>24.27499999999999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="C23" t="n">
-        <v>24.1</v>
+        <v>24.6</v>
       </c>
       <c r="D23" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="E23" t="n">
-        <v>24.1</v>
+        <v>24.6</v>
       </c>
       <c r="F23" t="n">
-        <v>19661.6982</v>
+        <v>19710.9756</v>
       </c>
       <c r="G23" t="n">
-        <v>24.46500000000001</v>
+        <v>24.28499999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="C24" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="D24" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="E24" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="F24" t="n">
-        <v>57449.5441</v>
+        <v>19661.6982</v>
       </c>
       <c r="G24" t="n">
-        <v>24.46</v>
+        <v>24.28666666666665</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="C25" t="n">
         <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="E25" t="n">
         <v>24</v>
       </c>
       <c r="F25" t="n">
-        <v>19690.5121</v>
+        <v>57449.5441</v>
       </c>
       <c r="G25" t="n">
-        <v>24.44</v>
+        <v>24.28666666666665</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="D26" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="E26" t="n">
         <v>24</v>
       </c>
       <c r="F26" t="n">
-        <v>65732.1525</v>
+        <v>19690.5121</v>
       </c>
       <c r="G26" t="n">
-        <v>24.42000000000001</v>
+        <v>24.28666666666665</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>23.9</v>
+        <v>24.4</v>
       </c>
       <c r="D27" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="E27" t="n">
         <v>24</v>
       </c>
-      <c r="E27" t="n">
-        <v>23.9</v>
-      </c>
       <c r="F27" t="n">
-        <v>18570.6235</v>
+        <v>65732.1525</v>
       </c>
       <c r="G27" t="n">
-        <v>24.405</v>
+        <v>24.29333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,10 +1343,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>24</v>
+      </c>
+      <c r="C28" t="n">
         <v>23.9</v>
-      </c>
-      <c r="C28" t="n">
-        <v>24</v>
       </c>
       <c r="D28" t="n">
         <v>24</v>
@@ -1355,10 +1355,10 @@
         <v>23.9</v>
       </c>
       <c r="F28" t="n">
-        <v>29868.0399</v>
+        <v>18570.6235</v>
       </c>
       <c r="G28" t="n">
-        <v>24.38000000000001</v>
+        <v>24.29166666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="C29" t="n">
         <v>24</v>
@@ -1387,13 +1387,13 @@
         <v>24</v>
       </c>
       <c r="E29" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="F29" t="n">
-        <v>564</v>
+        <v>29868.0399</v>
       </c>
       <c r="G29" t="n">
-        <v>24.36000000000001</v>
+        <v>24.29166666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>24</v>
       </c>
       <c r="F30" t="n">
-        <v>15851.2288</v>
+        <v>564</v>
       </c>
       <c r="G30" t="n">
-        <v>24.33500000000001</v>
+        <v>24.29166666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="C31" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="D31" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="E31" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="F31" t="n">
-        <v>54140.6352</v>
+        <v>15851.2288</v>
       </c>
       <c r="G31" t="n">
-        <v>24.30500000000001</v>
+        <v>24.29166666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>24.3</v>
+        <v>23.6</v>
       </c>
       <c r="C32" t="n">
-        <v>24.3</v>
+        <v>23.6</v>
       </c>
       <c r="D32" t="n">
-        <v>24.3</v>
+        <v>23.6</v>
       </c>
       <c r="E32" t="n">
-        <v>24.3</v>
+        <v>23.6</v>
       </c>
       <c r="F32" t="n">
-        <v>71229</v>
+        <v>54140.6352</v>
       </c>
       <c r="G32" t="n">
-        <v>24.29500000000001</v>
+        <v>24.28499999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>23.7</v>
+        <v>24.3</v>
       </c>
       <c r="C33" t="n">
-        <v>23.7</v>
+        <v>24.3</v>
       </c>
       <c r="D33" t="n">
-        <v>23.7</v>
+        <v>24.3</v>
       </c>
       <c r="E33" t="n">
-        <v>23.7</v>
+        <v>24.3</v>
       </c>
       <c r="F33" t="n">
-        <v>18143.3178</v>
+        <v>71229</v>
       </c>
       <c r="G33" t="n">
-        <v>24.25500000000001</v>
+        <v>24.28999999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="C34" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="D34" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="E34" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="F34" t="n">
-        <v>4057</v>
+        <v>18143.3178</v>
       </c>
       <c r="G34" t="n">
-        <v>24.23000000000001</v>
+        <v>24.28499999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="C35" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="D35" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="E35" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="F35" t="n">
-        <v>4016</v>
+        <v>4057</v>
       </c>
       <c r="G35" t="n">
-        <v>24.20000000000001</v>
+        <v>24.28999999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="C36" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="D36" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="E36" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="F36" t="n">
-        <v>10083.3266</v>
+        <v>4016</v>
       </c>
       <c r="G36" t="n">
-        <v>24.18000000000001</v>
+        <v>24.29333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="C37" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="D37" t="n">
-        <v>24.4</v>
+        <v>24.1</v>
       </c>
       <c r="E37" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="F37" t="n">
-        <v>109463.0079</v>
+        <v>10083.3266</v>
       </c>
       <c r="G37" t="n">
-        <v>24.17000000000001</v>
+        <v>24.29499999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C38" t="n">
         <v>24.4</v>
       </c>
-      <c r="C38" t="n">
-        <v>24.5</v>
-      </c>
       <c r="D38" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="E38" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="F38" t="n">
-        <v>69919</v>
+        <v>109463.0079</v>
       </c>
       <c r="G38" t="n">
-        <v>24.16000000000001</v>
+        <v>24.30166666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="C39" t="n">
         <v>24.5</v>
@@ -1737,13 +1737,13 @@
         <v>24.5</v>
       </c>
       <c r="E39" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="F39" t="n">
-        <v>2000</v>
+        <v>69919</v>
       </c>
       <c r="G39" t="n">
-        <v>24.15500000000001</v>
+        <v>24.30999999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>24.5</v>
       </c>
       <c r="F40" t="n">
-        <v>44662.5325</v>
+        <v>2000</v>
       </c>
       <c r="G40" t="n">
-        <v>24.15000000000001</v>
+        <v>24.31833333333332</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="C41" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="D41" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E41" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="F41" t="n">
-        <v>178927.8861</v>
+        <v>44662.5325</v>
       </c>
       <c r="G41" t="n">
-        <v>24.15000000000001</v>
+        <v>24.32666666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>24.6</v>
       </c>
       <c r="F42" t="n">
-        <v>18938.8501</v>
+        <v>178927.8861</v>
       </c>
       <c r="G42" t="n">
-        <v>24.15000000000001</v>
+        <v>24.33166666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="C43" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="D43" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="E43" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="F43" t="n">
-        <v>81868.50199999999</v>
+        <v>18938.8501</v>
       </c>
       <c r="G43" t="n">
-        <v>24.16500000000001</v>
+        <v>24.33666666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="C44" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="D44" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="E44" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="F44" t="n">
-        <v>3160.2802</v>
+        <v>81868.50199999999</v>
       </c>
       <c r="G44" t="n">
-        <v>24.18500000000001</v>
+        <v>24.34333333333332</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>24.6</v>
       </c>
       <c r="F45" t="n">
-        <v>666</v>
+        <v>3160.2802</v>
       </c>
       <c r="G45" t="n">
-        <v>24.21500000000001</v>
+        <v>24.34833333333332</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>24.6</v>
       </c>
       <c r="F46" t="n">
-        <v>5337</v>
+        <v>666</v>
       </c>
       <c r="G46" t="n">
-        <v>24.24500000000001</v>
+        <v>24.34999999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>24.6</v>
       </c>
       <c r="F47" t="n">
-        <v>8000</v>
+        <v>5337</v>
       </c>
       <c r="G47" t="n">
-        <v>24.27500000000001</v>
+        <v>24.35166666666665</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>24.6</v>
       </c>
       <c r="C48" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="D48" t="n">
         <v>24.6</v>
       </c>
       <c r="E48" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="F48" t="n">
-        <v>27267.0291</v>
+        <v>8000</v>
       </c>
       <c r="G48" t="n">
-        <v>24.31000000000001</v>
+        <v>24.35333333333332</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="C49" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="D49" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="E49" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="F49" t="n">
-        <v>22494.1437</v>
+        <v>27267.0291</v>
       </c>
       <c r="G49" t="n">
-        <v>24.33000000000001</v>
+        <v>24.35999999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="C50" t="n">
         <v>24.3</v>
       </c>
       <c r="D50" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="E50" t="n">
         <v>24.3</v>
       </c>
       <c r="F50" t="n">
-        <v>28919.1829</v>
+        <v>22494.1437</v>
       </c>
       <c r="G50" t="n">
-        <v>24.34500000000001</v>
+        <v>24.35833333333332</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="C51" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="D51" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="E51" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>28919.1829</v>
       </c>
       <c r="G51" t="n">
-        <v>24.39000000000001</v>
+        <v>24.35666666666665</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="C52" t="n">
-        <v>22.7</v>
+        <v>24.5</v>
       </c>
       <c r="D52" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="E52" t="n">
-        <v>22.7</v>
+        <v>24.5</v>
       </c>
       <c r="F52" t="n">
-        <v>81868.5019</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>24.37500000000001</v>
+        <v>24.35833333333331</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="C53" t="n">
-        <v>24.5</v>
+        <v>22.7</v>
       </c>
       <c r="D53" t="n">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="E53" t="n">
-        <v>24.5</v>
+        <v>22.7</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>81868.5019</v>
       </c>
       <c r="G53" t="n">
-        <v>24.41500000000001</v>
+        <v>24.33166666666665</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>23.9</v>
+        <v>24.5</v>
       </c>
       <c r="C54" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="D54" t="n">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="E54" t="n">
-        <v>23.8</v>
+        <v>24.5</v>
       </c>
       <c r="F54" t="n">
-        <v>251283.3359</v>
+        <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>24.41000000000001</v>
+        <v>24.33499999999998</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="C55" t="n">
-        <v>24.1</v>
+        <v>24.6</v>
       </c>
       <c r="D55" t="n">
-        <v>24.2</v>
+        <v>25.3</v>
       </c>
       <c r="E55" t="n">
-        <v>24.1</v>
+        <v>23.8</v>
       </c>
       <c r="F55" t="n">
-        <v>78228.64969999999</v>
+        <v>251283.3359</v>
       </c>
       <c r="G55" t="n">
-        <v>24.42000000000002</v>
+        <v>24.33833333333331</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>24.1</v>
       </c>
       <c r="D56" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="E56" t="n">
         <v>24.1</v>
       </c>
       <c r="F56" t="n">
-        <v>3000</v>
+        <v>78228.64969999999</v>
       </c>
       <c r="G56" t="n">
-        <v>24.42000000000002</v>
+        <v>24.33499999999998</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>24.1</v>
       </c>
       <c r="F57" t="n">
-        <v>176.7635</v>
+        <v>3000</v>
       </c>
       <c r="G57" t="n">
-        <v>24.41000000000002</v>
+        <v>24.32999999999998</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="C58" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="D58" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="E58" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="F58" t="n">
-        <v>900</v>
+        <v>176.7635</v>
       </c>
       <c r="G58" t="n">
-        <v>24.40500000000002</v>
+        <v>24.32499999999997</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="C59" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="D59" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="E59" t="n">
-        <v>24</v>
+        <v>24.3</v>
       </c>
       <c r="F59" t="n">
-        <v>4537</v>
+        <v>900</v>
       </c>
       <c r="G59" t="n">
-        <v>24.38000000000002</v>
+        <v>24.32333333333331</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="C60" t="n">
         <v>24.1</v>
@@ -2472,13 +2472,13 @@
         <v>24.1</v>
       </c>
       <c r="E60" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="F60" t="n">
-        <v>5000</v>
+        <v>4537</v>
       </c>
       <c r="G60" t="n">
-        <v>24.36000000000002</v>
+        <v>24.32499999999997</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="C61" t="n">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="D61" t="n">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="E61" t="n">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="F61" t="n">
-        <v>5625.6557</v>
+        <v>5000</v>
       </c>
       <c r="G61" t="n">
-        <v>24.31500000000002</v>
+        <v>24.31999999999997</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2536,19 +2536,19 @@
         <v>23.7</v>
       </c>
       <c r="C62" t="n">
-        <v>22.9</v>
+        <v>23.7</v>
       </c>
       <c r="D62" t="n">
         <v>23.7</v>
       </c>
       <c r="E62" t="n">
-        <v>22.9</v>
+        <v>23.7</v>
       </c>
       <c r="F62" t="n">
-        <v>78228.6498</v>
+        <v>5625.6557</v>
       </c>
       <c r="G62" t="n">
-        <v>24.27000000000002</v>
+        <v>24.30999999999997</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>24.1</v>
+        <v>23.7</v>
       </c>
       <c r="C63" t="n">
-        <v>24.2</v>
+        <v>22.9</v>
       </c>
       <c r="D63" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="E63" t="n">
-        <v>24</v>
+        <v>22.9</v>
       </c>
       <c r="F63" t="n">
-        <v>19187.333</v>
+        <v>78228.6498</v>
       </c>
       <c r="G63" t="n">
-        <v>24.24000000000002</v>
+        <v>24.28666666666664</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C64" t="n">
         <v>24.2</v>
       </c>
-      <c r="C64" t="n">
-        <v>24.9</v>
-      </c>
       <c r="D64" t="n">
-        <v>24.9</v>
+        <v>24.2</v>
       </c>
       <c r="E64" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="F64" t="n">
-        <v>4000</v>
+        <v>19187.333</v>
       </c>
       <c r="G64" t="n">
-        <v>24.22000000000002</v>
+        <v>24.28499999999997</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="C65" t="n">
-        <v>24.3</v>
+        <v>24.9</v>
       </c>
       <c r="D65" t="n">
-        <v>24.3</v>
+        <v>24.9</v>
       </c>
       <c r="E65" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="F65" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G65" t="n">
-        <v>24.20500000000002</v>
+        <v>24.2933333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>23.5</v>
+        <v>24.3</v>
       </c>
       <c r="C66" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="D66" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="E66" t="n">
-        <v>23</v>
+        <v>24.3</v>
       </c>
       <c r="F66" t="n">
-        <v>142419.3004</v>
+        <v>6000</v>
       </c>
       <c r="G66" t="n">
-        <v>24.15000000000001</v>
+        <v>24.29166666666664</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>24.2</v>
+        <v>23.5</v>
       </c>
       <c r="C67" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="D67" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="E67" t="n">
-        <v>24.2</v>
+        <v>23</v>
       </c>
       <c r="F67" t="n">
-        <v>16529</v>
+        <v>142419.3004</v>
       </c>
       <c r="G67" t="n">
-        <v>24.13000000000001</v>
+        <v>24.29499999999997</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2746,19 +2746,19 @@
         <v>24.2</v>
       </c>
       <c r="C68" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="D68" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="E68" t="n">
         <v>24.2</v>
       </c>
       <c r="F68" t="n">
-        <v>8028</v>
+        <v>16529</v>
       </c>
       <c r="G68" t="n">
-        <v>24.11000000000001</v>
+        <v>24.2933333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="C69" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="D69" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="E69" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="F69" t="n">
-        <v>2000</v>
+        <v>8028</v>
       </c>
       <c r="G69" t="n">
-        <v>24.12000000000001</v>
+        <v>24.2983333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="C70" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="D70" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="E70" t="n">
-        <v>23.7</v>
+        <v>24.6</v>
       </c>
       <c r="F70" t="n">
-        <v>393.738</v>
+        <v>2000</v>
       </c>
       <c r="G70" t="n">
-        <v>24.09000000000001</v>
+        <v>24.29999999999996</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="C71" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="D71" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="E71" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="F71" t="n">
-        <v>730</v>
+        <v>393.738</v>
       </c>
       <c r="G71" t="n">
-        <v>24.06500000000001</v>
+        <v>24.28666666666663</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="C72" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="D72" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="E72" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="F72" t="n">
-        <v>1000</v>
+        <v>730</v>
       </c>
       <c r="G72" t="n">
-        <v>24.07000000000001</v>
+        <v>24.28166666666663</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>24.1</v>
       </c>
       <c r="C73" t="n">
-        <v>24.7</v>
+        <v>24.1</v>
       </c>
       <c r="D73" t="n">
-        <v>24.7</v>
+        <v>24.1</v>
       </c>
       <c r="E73" t="n">
         <v>24.1</v>
       </c>
       <c r="F73" t="n">
-        <v>14131</v>
+        <v>1000</v>
       </c>
       <c r="G73" t="n">
-        <v>24.05000000000001</v>
+        <v>24.27499999999996</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>24.6</v>
+        <v>24.1</v>
       </c>
       <c r="C74" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="D74" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="E74" t="n">
-        <v>24.6</v>
+        <v>24.1</v>
       </c>
       <c r="F74" t="n">
-        <v>4000</v>
+        <v>14131</v>
       </c>
       <c r="G74" t="n">
-        <v>24.08500000000002</v>
+        <v>24.2783333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="C75" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="D75" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="E75" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="F75" t="n">
         <v>4000</v>
       </c>
       <c r="G75" t="n">
-        <v>24.10000000000002</v>
+        <v>24.27999999999996</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         <v>24.4</v>
       </c>
       <c r="C76" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="D76" t="n">
         <v>24.4</v>
       </c>
       <c r="E76" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="F76" t="n">
-        <v>17707.9839</v>
+        <v>4000</v>
       </c>
       <c r="G76" t="n">
-        <v>24.11500000000001</v>
+        <v>24.2783333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3061,19 +3061,19 @@
         <v>24.4</v>
       </c>
       <c r="C77" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="D77" t="n">
         <v>24.4</v>
       </c>
       <c r="E77" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="F77" t="n">
-        <v>1809.5422</v>
+        <v>17707.9839</v>
       </c>
       <c r="G77" t="n">
-        <v>24.13000000000001</v>
+        <v>24.27499999999996</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         <v>24.4</v>
       </c>
       <c r="F78" t="n">
-        <v>4000</v>
+        <v>1809.5422</v>
       </c>
       <c r="G78" t="n">
-        <v>24.13500000000001</v>
+        <v>24.27166666666663</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="C79" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="D79" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="E79" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="F79" t="n">
-        <v>60</v>
+        <v>4000</v>
       </c>
       <c r="G79" t="n">
-        <v>24.16000000000001</v>
+        <v>24.2683333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>24.5</v>
       </c>
       <c r="F80" t="n">
-        <v>13559.7142</v>
+        <v>60</v>
       </c>
       <c r="G80" t="n">
-        <v>24.18000000000001</v>
+        <v>24.26666666666664</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3201,19 +3201,19 @@
         <v>24.5</v>
       </c>
       <c r="C81" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="D81" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E81" t="n">
         <v>24.5</v>
       </c>
       <c r="F81" t="n">
-        <v>17000</v>
+        <v>13559.7142</v>
       </c>
       <c r="G81" t="n">
-        <v>24.22000000000001</v>
+        <v>24.26499999999997</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="C82" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="D82" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="E82" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F82" t="n">
-        <v>2961.6719</v>
+        <v>17000</v>
       </c>
       <c r="G82" t="n">
-        <v>24.27000000000001</v>
+        <v>24.26499999999997</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,19 +3271,19 @@
         <v>24.7</v>
       </c>
       <c r="C83" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="D83" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="E83" t="n">
         <v>24.7</v>
       </c>
       <c r="F83" t="n">
-        <v>46949.4454264</v>
+        <v>2961.6719</v>
       </c>
       <c r="G83" t="n">
-        <v>24.3</v>
+        <v>24.26666666666664</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="C84" t="n">
         <v>25</v>
@@ -3312,13 +3312,13 @@
         <v>25</v>
       </c>
       <c r="E84" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="F84" t="n">
-        <v>19474.2</v>
+        <v>46949.4454264</v>
       </c>
       <c r="G84" t="n">
-        <v>24.34000000000001</v>
+        <v>24.28166666666664</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C85" t="n">
         <v>25</v>
@@ -3347,13 +3347,13 @@
         <v>25</v>
       </c>
       <c r="E85" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="F85" t="n">
-        <v>19169.9761736</v>
+        <v>19474.2</v>
       </c>
       <c r="G85" t="n">
-        <v>24.37</v>
+        <v>24.29833333333331</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="C86" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="D86" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="E86" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="F86" t="n">
-        <v>19533.54569960159</v>
+        <v>19169.9761736</v>
       </c>
       <c r="G86" t="n">
-        <v>24.45000000000001</v>
+        <v>24.31499999999998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3411,19 +3411,19 @@
         <v>25.1</v>
       </c>
       <c r="C87" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="D87" t="n">
         <v>25.1</v>
       </c>
       <c r="E87" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="F87" t="n">
-        <v>15715.3428</v>
+        <v>19533.54569960159</v>
       </c>
       <c r="G87" t="n">
-        <v>24.49500000000001</v>
+        <v>24.32666666666664</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3446,19 +3446,19 @@
         <v>25.1</v>
       </c>
       <c r="C88" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="D88" t="n">
         <v>25.1</v>
       </c>
       <c r="E88" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="F88" t="n">
-        <v>8943.984</v>
+        <v>15715.3428</v>
       </c>
       <c r="G88" t="n">
-        <v>24.54000000000001</v>
+        <v>24.34499999999997</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>25.1</v>
       </c>
       <c r="F89" t="n">
-        <v>71781.70790039841</v>
+        <v>8943.984</v>
       </c>
       <c r="G89" t="n">
-        <v>24.565</v>
+        <v>24.3633333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="C90" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="D90" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="E90" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="F90" t="n">
-        <v>87796.7274</v>
+        <v>71781.70790039841</v>
       </c>
       <c r="G90" t="n">
-        <v>24.645</v>
+        <v>24.38166666666664</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C91" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D91" t="n">
         <v>25.4</v>
       </c>
-      <c r="C91" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D91" t="n">
-        <v>25.8</v>
-      </c>
       <c r="E91" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="F91" t="n">
-        <v>59958.3399</v>
+        <v>87796.7274</v>
       </c>
       <c r="G91" t="n">
-        <v>24.715</v>
+        <v>24.4033333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C92" t="n">
         <v>25.8</v>
       </c>
-      <c r="C92" t="n">
-        <v>26.1</v>
-      </c>
       <c r="D92" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="E92" t="n">
-        <v>25.8</v>
+        <v>25.4</v>
       </c>
       <c r="F92" t="n">
-        <v>289056.6825</v>
+        <v>59958.3399</v>
       </c>
       <c r="G92" t="n">
-        <v>24.8</v>
+        <v>24.43999999999997</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C93" t="n">
         <v>26.1</v>
       </c>
-      <c r="C93" t="n">
-        <v>26.5</v>
-      </c>
       <c r="D93" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="E93" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="F93" t="n">
-        <v>221044.4107</v>
+        <v>289056.6825</v>
       </c>
       <c r="G93" t="n">
-        <v>24.9</v>
+        <v>24.46999999999997</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>26.4</v>
+        <v>26.1</v>
       </c>
       <c r="C94" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="D94" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="E94" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="F94" t="n">
-        <v>263814.8861</v>
+        <v>221044.4107</v>
       </c>
       <c r="G94" t="n">
-        <v>24.99</v>
+        <v>24.51666666666663</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>26.1</v>
+        <v>26.4</v>
       </c>
       <c r="C95" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="D95" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="E95" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="F95" t="n">
-        <v>48239.6047</v>
+        <v>263814.8861</v>
       </c>
       <c r="G95" t="n">
-        <v>25.075</v>
+        <v>24.55666666666663</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C96" t="n">
         <v>26.5</v>
       </c>
-      <c r="C96" t="n">
-        <v>26.9</v>
-      </c>
       <c r="D96" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
       <c r="E96" t="n">
-        <v>26.5</v>
+        <v>26.1</v>
       </c>
       <c r="F96" t="n">
-        <v>324607.3447</v>
+        <v>48239.6047</v>
       </c>
       <c r="G96" t="n">
-        <v>25.18</v>
+        <v>24.59499999999997</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,19 +3761,19 @@
         <v>26.5</v>
       </c>
       <c r="C97" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="D97" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="E97" t="n">
         <v>26.5</v>
       </c>
       <c r="F97" t="n">
-        <v>77282.05839999999</v>
+        <v>324607.3447</v>
       </c>
       <c r="G97" t="n">
-        <v>25.285</v>
+        <v>24.64166666666664</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,28 +3793,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="C98" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="D98" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="E98" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="F98" t="n">
-        <v>68518.2142</v>
+        <v>77282.05839999999</v>
       </c>
       <c r="G98" t="n">
-        <v>25.40000000000001</v>
+        <v>24.6783333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3831,25 +3831,25 @@
         <v>26.7</v>
       </c>
       <c r="C99" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="D99" t="n">
-        <v>27</v>
+        <v>26.7</v>
       </c>
       <c r="E99" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="F99" t="n">
-        <v>322666.5175</v>
+        <v>68518.2142</v>
       </c>
       <c r="G99" t="n">
-        <v>25.51000000000001</v>
+        <v>24.71499999999997</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3863,10 +3863,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C100" t="n">
         <v>27</v>
-      </c>
-      <c r="C100" t="n">
-        <v>26.9</v>
       </c>
       <c r="D100" t="n">
         <v>27</v>
@@ -3875,10 +3875,10 @@
         <v>26.7</v>
       </c>
       <c r="F100" t="n">
-        <v>285334.3508022222</v>
+        <v>322666.5175</v>
       </c>
       <c r="G100" t="n">
-        <v>25.63500000000001</v>
+        <v>24.75666666666664</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>27</v>
+      </c>
+      <c r="C101" t="n">
         <v>26.9</v>
-      </c>
-      <c r="C101" t="n">
-        <v>27</v>
       </c>
       <c r="D101" t="n">
         <v>27</v>
       </c>
       <c r="E101" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="F101" t="n">
-        <v>119548.9351</v>
+        <v>285334.3508022222</v>
       </c>
       <c r="G101" t="n">
-        <v>25.75500000000001</v>
+        <v>24.79666666666663</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,28 +3933,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="C102" t="n">
         <v>27</v>
-      </c>
-      <c r="C102" t="n">
-        <v>26.2</v>
       </c>
       <c r="D102" t="n">
         <v>27</v>
       </c>
       <c r="E102" t="n">
-        <v>26.2</v>
+        <v>26.9</v>
       </c>
       <c r="F102" t="n">
-        <v>265867.7488925926</v>
+        <v>119548.9351</v>
       </c>
       <c r="G102" t="n">
-        <v>25.87</v>
+        <v>24.83666666666664</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>27</v>
+      </c>
+      <c r="C103" t="n">
         <v>26.2</v>
       </c>
-      <c r="C103" t="n">
-        <v>25.8</v>
-      </c>
       <c r="D103" t="n">
+        <v>27</v>
+      </c>
+      <c r="E103" t="n">
         <v>26.2</v>
       </c>
-      <c r="E103" t="n">
-        <v>25.4</v>
-      </c>
       <c r="F103" t="n">
-        <v>41864.4746</v>
+        <v>265867.7488925926</v>
       </c>
       <c r="G103" t="n">
-        <v>25.945</v>
+        <v>24.8633333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>25.5</v>
+        <v>26.2</v>
       </c>
       <c r="C104" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="D104" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="E104" t="n">
         <v>25.4</v>
       </c>
       <c r="F104" t="n">
-        <v>153215.7338</v>
+        <v>41864.4746</v>
       </c>
       <c r="G104" t="n">
-        <v>25.97000000000001</v>
+        <v>24.88166666666664</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="C105" t="n">
         <v>25.6</v>
       </c>
       <c r="D105" t="n">
-        <v>25.7</v>
+        <v>26.7</v>
       </c>
       <c r="E105" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="F105" t="n">
-        <v>56000</v>
+        <v>153215.7338</v>
       </c>
       <c r="G105" t="n">
-        <v>26.00500000000001</v>
+        <v>24.89833333333331</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="C106" t="n">
         <v>25.6</v>
       </c>
       <c r="D106" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="E106" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="F106" t="n">
-        <v>28724.1355</v>
+        <v>56000</v>
       </c>
       <c r="G106" t="n">
-        <v>26.04500000000001</v>
+        <v>24.91499999999997</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C107" t="n">
         <v>25.6</v>
       </c>
-      <c r="C107" t="n">
-        <v>25.7</v>
-      </c>
       <c r="D107" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="E107" t="n">
         <v>25.6</v>
       </c>
       <c r="F107" t="n">
-        <v>38831.7483</v>
+        <v>28724.1355</v>
       </c>
       <c r="G107" t="n">
-        <v>26.07</v>
+        <v>24.93166666666664</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="C108" t="n">
-        <v>26.2</v>
+        <v>25.7</v>
       </c>
       <c r="D108" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="E108" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="F108" t="n">
-        <v>85675.3895</v>
+        <v>38831.7483</v>
       </c>
       <c r="G108" t="n">
-        <v>26.11</v>
+        <v>24.94999999999997</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>26.3</v>
+        <v>25.9</v>
       </c>
       <c r="C109" t="n">
         <v>26.2</v>
       </c>
       <c r="D109" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="E109" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="F109" t="n">
-        <v>26785.8168</v>
+        <v>85675.3895</v>
       </c>
       <c r="G109" t="n">
-        <v>26.17</v>
+        <v>24.97833333333331</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="C110" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="D110" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="E110" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="F110" t="n">
-        <v>90932.9025</v>
+        <v>26785.8168</v>
       </c>
       <c r="G110" t="n">
-        <v>26.225</v>
+        <v>25.00999999999998</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4251,19 +4251,19 @@
         <v>26.4</v>
       </c>
       <c r="C111" t="n">
-        <v>26.7</v>
+        <v>26.4</v>
       </c>
       <c r="D111" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="E111" t="n">
         <v>26.4</v>
       </c>
       <c r="F111" t="n">
-        <v>21576.7906</v>
+        <v>90932.9025</v>
       </c>
       <c r="G111" t="n">
-        <v>26.275</v>
+        <v>25.04499999999998</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,10 +4283,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C112" t="n">
         <v>26.7</v>
-      </c>
-      <c r="C112" t="n">
-        <v>26.4</v>
       </c>
       <c r="D112" t="n">
         <v>26.7</v>
@@ -4295,10 +4295,10 @@
         <v>26.4</v>
       </c>
       <c r="F112" t="n">
-        <v>34503.6286</v>
+        <v>21576.7906</v>
       </c>
       <c r="G112" t="n">
-        <v>26.32</v>
+        <v>25.08166666666665</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>25.9</v>
+        <v>26.7</v>
       </c>
       <c r="C113" t="n">
-        <v>25.9</v>
+        <v>26.4</v>
       </c>
       <c r="D113" t="n">
-        <v>25.9</v>
+        <v>26.7</v>
       </c>
       <c r="E113" t="n">
-        <v>25.9</v>
+        <v>26.4</v>
       </c>
       <c r="F113" t="n">
-        <v>40922.0468</v>
+        <v>34503.6286</v>
       </c>
       <c r="G113" t="n">
-        <v>26.31</v>
+        <v>25.14333333333331</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="C114" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="D114" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="E114" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="F114" t="n">
-        <v>11112.9136</v>
+        <v>40922.0468</v>
       </c>
       <c r="G114" t="n">
-        <v>26.29</v>
+        <v>25.16666666666665</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,10 +4388,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>26</v>
+      </c>
+      <c r="C115" t="n">
         <v>26.1</v>
-      </c>
-      <c r="C115" t="n">
-        <v>26</v>
       </c>
       <c r="D115" t="n">
         <v>26.1</v>
@@ -4400,10 +4400,10 @@
         <v>26</v>
       </c>
       <c r="F115" t="n">
-        <v>45038.2969</v>
+        <v>11112.9136</v>
       </c>
       <c r="G115" t="n">
-        <v>26.29</v>
+        <v>25.19166666666665</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="C116" t="n">
         <v>26</v>
@@ -4435,10 +4435,10 @@
         <v>26</v>
       </c>
       <c r="F116" t="n">
-        <v>224019.1201</v>
+        <v>45038.2969</v>
       </c>
       <c r="G116" t="n">
-        <v>26.265</v>
+        <v>25.22333333333331</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>24.9</v>
+        <v>26</v>
       </c>
       <c r="C117" t="n">
-        <v>24.7</v>
+        <v>26</v>
       </c>
       <c r="D117" t="n">
-        <v>24.9</v>
+        <v>26.1</v>
       </c>
       <c r="E117" t="n">
-        <v>24.7</v>
+        <v>26</v>
       </c>
       <c r="F117" t="n">
-        <v>61702.9486</v>
+        <v>224019.1201</v>
       </c>
       <c r="G117" t="n">
-        <v>26.185</v>
+        <v>25.25499999999998</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="C118" t="n">
-        <v>25.7</v>
+        <v>24.7</v>
       </c>
       <c r="D118" t="n">
-        <v>25.7</v>
+        <v>24.9</v>
       </c>
       <c r="E118" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="F118" t="n">
-        <v>27756.5789</v>
+        <v>61702.9486</v>
       </c>
       <c r="G118" t="n">
-        <v>26.105</v>
+        <v>25.26499999999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="C119" t="n">
-        <v>25.1</v>
+        <v>25.7</v>
       </c>
       <c r="D119" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="E119" t="n">
         <v>25.1</v>
       </c>
       <c r="F119" t="n">
-        <v>23837.1956</v>
+        <v>27756.5789</v>
       </c>
       <c r="G119" t="n">
-        <v>26.04</v>
+        <v>25.28833333333332</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="C120" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="D120" t="n">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
       <c r="E120" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="F120" t="n">
-        <v>172805.2676</v>
+        <v>23837.1956</v>
       </c>
       <c r="G120" t="n">
-        <v>25.95</v>
+        <v>25.30499999999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="C121" t="n">
         <v>25</v>
       </c>
       <c r="D121" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="E121" t="n">
         <v>25</v>
       </c>
-      <c r="E121" t="n">
-        <v>24.9</v>
-      </c>
       <c r="F121" t="n">
-        <v>4136.2112</v>
+        <v>172805.2676</v>
       </c>
       <c r="G121" t="n">
-        <v>25.85</v>
+        <v>25.31999999999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C122" t="n">
         <v>25</v>
@@ -4642,13 +4642,13 @@
         <v>25</v>
       </c>
       <c r="E122" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="F122" t="n">
-        <v>39997.863</v>
+        <v>4136.2112</v>
       </c>
       <c r="G122" t="n">
-        <v>25.75</v>
+        <v>25.34166666666665</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="C123" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="D123" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="E123" t="n">
         <v>25</v>
       </c>
       <c r="F123" t="n">
-        <v>70159.1618</v>
+        <v>39997.863</v>
       </c>
       <c r="G123" t="n">
-        <v>25.7</v>
+        <v>25.37666666666665</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4706,19 +4706,19 @@
         <v>25.2</v>
       </c>
       <c r="C124" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="D124" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="E124" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="F124" t="n">
-        <v>27060.0144</v>
+        <v>70159.1618</v>
       </c>
       <c r="G124" t="n">
-        <v>25.685</v>
+        <v>25.39333333333332</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="C125" t="n">
         <v>25.1</v>
       </c>
       <c r="D125" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="E125" t="n">
         <v>25.1</v>
       </c>
       <c r="F125" t="n">
-        <v>4166.6667</v>
+        <v>27060.0144</v>
       </c>
       <c r="G125" t="n">
-        <v>25.66</v>
+        <v>25.39666666666665</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4785,10 +4785,10 @@
         <v>25.1</v>
       </c>
       <c r="F126" t="n">
-        <v>19773.8917</v>
+        <v>4166.6667</v>
       </c>
       <c r="G126" t="n">
-        <v>25.62</v>
+        <v>25.40999999999998</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="C127" t="n">
-        <v>25.6</v>
+        <v>25.1</v>
       </c>
       <c r="D127" t="n">
-        <v>25.6</v>
+        <v>25.1</v>
       </c>
       <c r="E127" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="F127" t="n">
-        <v>34498.2544</v>
+        <v>19773.8917</v>
       </c>
       <c r="G127" t="n">
-        <v>25.605</v>
+        <v>25.41833333333332</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="C128" t="n">
-        <v>25</v>
+        <v>25.6</v>
       </c>
       <c r="D128" t="n">
-        <v>25.2</v>
+        <v>25.6</v>
       </c>
       <c r="E128" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="F128" t="n">
-        <v>41234.9183</v>
+        <v>34498.2544</v>
       </c>
       <c r="G128" t="n">
-        <v>25.57</v>
+        <v>25.43999999999998</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="C129" t="n">
         <v>25</v>
@@ -4890,10 +4890,10 @@
         <v>25</v>
       </c>
       <c r="F129" t="n">
-        <v>25795.281</v>
+        <v>41234.9183</v>
       </c>
       <c r="G129" t="n">
-        <v>25.51000000000001</v>
+        <v>25.44499999999998</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="C130" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="D130" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="E130" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="F130" t="n">
-        <v>2000</v>
+        <v>25795.281</v>
       </c>
       <c r="G130" t="n">
-        <v>25.46000000000001</v>
+        <v>25.45166666666665</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="C131" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="D131" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="E131" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="F131" t="n">
-        <v>15587.9562</v>
+        <v>2000</v>
       </c>
       <c r="G131" t="n">
-        <v>25.39500000000001</v>
+        <v>25.47999999999998</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="C132" t="n">
         <v>25</v>
       </c>
       <c r="D132" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="E132" t="n">
         <v>25</v>
       </c>
       <c r="F132" t="n">
-        <v>10069.0463</v>
+        <v>15587.9562</v>
       </c>
       <c r="G132" t="n">
-        <v>25.31000000000001</v>
+        <v>25.49333333333332</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="C133" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="D133" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="E133" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="F133" t="n">
-        <v>3000</v>
+        <v>10069.0463</v>
       </c>
       <c r="G133" t="n">
-        <v>25.28500000000001</v>
+        <v>25.50833333333332</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5056,19 +5056,19 @@
         <v>25.4</v>
       </c>
       <c r="C134" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="D134" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="E134" t="n">
         <v>25.4</v>
       </c>
       <c r="F134" t="n">
-        <v>81360.4705</v>
+        <v>3000</v>
       </c>
       <c r="G134" t="n">
-        <v>25.25500000000001</v>
+        <v>25.51999999999999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="C135" t="n">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="D135" t="n">
-        <v>25.1</v>
+        <v>25.5</v>
       </c>
       <c r="E135" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="F135" t="n">
-        <v>68758.1664</v>
+        <v>81360.4705</v>
       </c>
       <c r="G135" t="n">
-        <v>25.20500000000001</v>
+        <v>25.53499999999999</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="C136" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="D136" t="n">
-        <v>25.5</v>
+        <v>25.1</v>
       </c>
       <c r="E136" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="F136" t="n">
-        <v>7000</v>
+        <v>68758.1664</v>
       </c>
       <c r="G136" t="n">
-        <v>25.17000000000001</v>
+        <v>25.54499999999998</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5161,19 +5161,19 @@
         <v>25.3</v>
       </c>
       <c r="C137" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="D137" t="n">
         <v>25.5</v>
       </c>
       <c r="E137" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="F137" t="n">
-        <v>23716</v>
+        <v>7000</v>
       </c>
       <c r="G137" t="n">
-        <v>25.19000000000001</v>
+        <v>25.56499999999999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C138" t="n">
         <v>25.4</v>
-      </c>
-      <c r="C138" t="n">
-        <v>25.5</v>
       </c>
       <c r="D138" t="n">
         <v>25.5</v>
       </c>
       <c r="E138" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="F138" t="n">
-        <v>13130</v>
+        <v>23716</v>
       </c>
       <c r="G138" t="n">
-        <v>25.20500000000001</v>
+        <v>25.58166666666665</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C139" t="n">
         <v>25.5</v>
       </c>
-      <c r="C139" t="n">
-        <v>25.7</v>
-      </c>
       <c r="D139" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="E139" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="F139" t="n">
-        <v>37073.5294</v>
+        <v>13130</v>
       </c>
       <c r="G139" t="n">
-        <v>25.21000000000001</v>
+        <v>25.59999999999998</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5266,19 +5266,19 @@
         <v>25.5</v>
       </c>
       <c r="C140" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="D140" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="E140" t="n">
         <v>25.5</v>
       </c>
       <c r="F140" t="n">
-        <v>17000</v>
+        <v>37073.5294</v>
       </c>
       <c r="G140" t="n">
-        <v>25.22500000000001</v>
+        <v>25.61999999999999</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5310,10 +5310,10 @@
         <v>25.5</v>
       </c>
       <c r="F141" t="n">
-        <v>20741.0826</v>
+        <v>17000</v>
       </c>
       <c r="G141" t="n">
-        <v>25.25500000000001</v>
+        <v>25.63666666666665</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="C142" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="D142" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="E142" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="F142" t="n">
-        <v>16385.2918</v>
+        <v>20741.0826</v>
       </c>
       <c r="G142" t="n">
-        <v>25.29000000000001</v>
+        <v>25.65166666666665</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>25.7</v>
       </c>
       <c r="F143" t="n">
-        <v>70</v>
+        <v>16385.2918</v>
       </c>
       <c r="G143" t="n">
-        <v>25.31500000000002</v>
+        <v>25.66833333333332</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5415,10 +5415,10 @@
         <v>25.7</v>
       </c>
       <c r="F144" t="n">
-        <v>7707</v>
+        <v>70</v>
       </c>
       <c r="G144" t="n">
-        <v>25.34000000000002</v>
+        <v>25.67999999999999</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5450,10 +5450,10 @@
         <v>25.7</v>
       </c>
       <c r="F145" t="n">
-        <v>18442.4266</v>
+        <v>7707</v>
       </c>
       <c r="G145" t="n">
-        <v>25.37000000000002</v>
+        <v>25.69166666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5482,13 +5482,13 @@
         <v>25.7</v>
       </c>
       <c r="E146" t="n">
-        <v>25.2</v>
+        <v>25.7</v>
       </c>
       <c r="F146" t="n">
-        <v>44876.9235</v>
+        <v>18442.4266</v>
       </c>
       <c r="G146" t="n">
-        <v>25.40000000000002</v>
+        <v>25.70333333333332</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5517,13 +5517,13 @@
         <v>25.7</v>
       </c>
       <c r="E147" t="n">
-        <v>25.7</v>
+        <v>25.2</v>
       </c>
       <c r="F147" t="n">
-        <v>3574.0466</v>
+        <v>44876.9235</v>
       </c>
       <c r="G147" t="n">
-        <v>25.42000000000002</v>
+        <v>25.71333333333332</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5555,10 +5555,10 @@
         <v>25.7</v>
       </c>
       <c r="F148" t="n">
-        <v>6718.9883</v>
+        <v>3574.0466</v>
       </c>
       <c r="G148" t="n">
-        <v>25.44500000000002</v>
+        <v>25.72499999999999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="C149" t="n">
-        <v>25.2</v>
+        <v>25.7</v>
       </c>
       <c r="D149" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="E149" t="n">
-        <v>25.2</v>
+        <v>25.7</v>
       </c>
       <c r="F149" t="n">
-        <v>7318.2346</v>
+        <v>6718.9883</v>
       </c>
       <c r="G149" t="n">
-        <v>25.47000000000002</v>
+        <v>25.735</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C150" t="n">
         <v>25.2</v>
       </c>
-      <c r="C150" t="n">
-        <v>25.1</v>
-      </c>
       <c r="D150" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E150" t="n">
         <v>25.2</v>
       </c>
-      <c r="E150" t="n">
-        <v>25.1</v>
-      </c>
       <c r="F150" t="n">
-        <v>2000</v>
+        <v>7318.2346</v>
       </c>
       <c r="G150" t="n">
-        <v>25.46000000000002</v>
+        <v>25.73666666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="C151" t="n">
         <v>25.1</v>
       </c>
       <c r="D151" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="E151" t="n">
         <v>25.1</v>
       </c>
       <c r="F151" t="n">
-        <v>36680.32</v>
+        <v>2000</v>
       </c>
       <c r="G151" t="n">
-        <v>25.46000000000002</v>
+        <v>25.73333333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="C152" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="D152" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="E152" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="F152" t="n">
-        <v>2000</v>
+        <v>36680.32</v>
       </c>
       <c r="G152" t="n">
-        <v>25.47500000000002</v>
+        <v>25.72166666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C153" t="n">
         <v>25.2</v>
       </c>
-      <c r="C153" t="n">
-        <v>25</v>
-      </c>
       <c r="D153" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E153" t="n">
         <v>25.2</v>
       </c>
-      <c r="E153" t="n">
-        <v>25</v>
-      </c>
       <c r="F153" t="n">
-        <v>48548.58</v>
+        <v>2000</v>
       </c>
       <c r="G153" t="n">
-        <v>25.46500000000002</v>
+        <v>25.70666666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C154" t="n">
         <v>25</v>
       </c>
-      <c r="C154" t="n">
-        <v>25.3</v>
-      </c>
       <c r="D154" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="E154" t="n">
         <v>25</v>
       </c>
       <c r="F154" t="n">
-        <v>88894.25999999999</v>
+        <v>48548.58</v>
       </c>
       <c r="G154" t="n">
-        <v>25.44500000000002</v>
+        <v>25.68166666666666</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5791,19 +5791,19 @@
         <v>25</v>
       </c>
       <c r="C155" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="D155" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="E155" t="n">
         <v>25</v>
       </c>
       <c r="F155" t="n">
-        <v>230930.4795</v>
+        <v>88894.25999999999</v>
       </c>
       <c r="G155" t="n">
-        <v>25.44000000000002</v>
+        <v>25.66333333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5835,10 +5835,10 @@
         <v>25</v>
       </c>
       <c r="F156" t="n">
-        <v>4000</v>
+        <v>230930.4795</v>
       </c>
       <c r="G156" t="n">
-        <v>25.42500000000002</v>
+        <v>25.63833333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="C157" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="D157" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="E157" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="F157" t="n">
-        <v>1900</v>
+        <v>4000</v>
       </c>
       <c r="G157" t="n">
-        <v>25.42500000000002</v>
+        <v>25.60666666666666</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="C158" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="D158" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="E158" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="F158" t="n">
-        <v>199.7</v>
+        <v>1900</v>
       </c>
       <c r="G158" t="n">
-        <v>25.41000000000002</v>
+        <v>25.58666666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5940,10 +5940,10 @@
         <v>25.1</v>
       </c>
       <c r="F159" t="n">
-        <v>4000</v>
+        <v>199.7</v>
       </c>
       <c r="G159" t="n">
-        <v>25.39000000000002</v>
+        <v>25.56</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="C160" t="n">
         <v>25.1</v>
       </c>
       <c r="D160" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="E160" t="n">
         <v>25.1</v>
       </c>
       <c r="F160" t="n">
-        <v>16128.72</v>
+        <v>4000</v>
       </c>
       <c r="G160" t="n">
-        <v>25.37500000000002</v>
+        <v>25.52833333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C161" t="n">
         <v>25.1</v>
       </c>
-      <c r="C161" t="n">
-        <v>25</v>
-      </c>
       <c r="D161" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="E161" t="n">
         <v>25.1</v>
       </c>
-      <c r="E161" t="n">
-        <v>25</v>
-      </c>
       <c r="F161" t="n">
-        <v>14821.9265</v>
+        <v>16128.72</v>
       </c>
       <c r="G161" t="n">
-        <v>25.35500000000003</v>
+        <v>25.49833333333332</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="C162" t="n">
         <v>25</v>
       </c>
       <c r="D162" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="E162" t="n">
         <v>25</v>
       </c>
       <c r="F162" t="n">
-        <v>1863.16</v>
+        <v>14821.9265</v>
       </c>
       <c r="G162" t="n">
-        <v>25.32000000000003</v>
+        <v>25.46499999999999</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6080,10 +6080,10 @@
         <v>25</v>
       </c>
       <c r="F163" t="n">
-        <v>10754.64</v>
+        <v>1863.16</v>
       </c>
       <c r="G163" t="n">
-        <v>25.28500000000003</v>
+        <v>25.44499999999999</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6115,10 +6115,10 @@
         <v>25</v>
       </c>
       <c r="F164" t="n">
-        <v>16.1336</v>
+        <v>10754.64</v>
       </c>
       <c r="G164" t="n">
-        <v>25.25000000000002</v>
+        <v>25.43166666666666</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C165" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="D165" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="E165" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="F165" t="n">
-        <v>39999.9999</v>
+        <v>16.1336</v>
       </c>
       <c r="G165" t="n">
-        <v>25.21000000000003</v>
+        <v>25.42166666666666</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="C166" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="D166" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="E166" t="n">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="F166" t="n">
-        <v>51000</v>
+        <v>39999.9999</v>
       </c>
       <c r="G166" t="n">
-        <v>25.15500000000003</v>
+        <v>25.40999999999999</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6211,19 +6211,19 @@
         <v>24.6</v>
       </c>
       <c r="C167" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="D167" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="E167" t="n">
         <v>24.6</v>
       </c>
       <c r="F167" t="n">
-        <v>12784</v>
+        <v>51000</v>
       </c>
       <c r="G167" t="n">
-        <v>25.10000000000003</v>
+        <v>25.39333333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,7 +6243,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="C168" t="n">
         <v>25.1</v>
@@ -6252,13 +6252,13 @@
         <v>25.1</v>
       </c>
       <c r="E168" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="F168" t="n">
-        <v>16283.6341</v>
+        <v>12784</v>
       </c>
       <c r="G168" t="n">
-        <v>25.07000000000003</v>
+        <v>25.38333333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6281,19 +6281,19 @@
         <v>25.1</v>
       </c>
       <c r="C169" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="D169" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="E169" t="n">
-        <v>24.6</v>
+        <v>25.1</v>
       </c>
       <c r="F169" t="n">
-        <v>4100</v>
+        <v>16283.6341</v>
       </c>
       <c r="G169" t="n">
-        <v>25.04500000000002</v>
+        <v>25.36499999999999</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,7 +6313,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="C170" t="n">
         <v>25.3</v>
@@ -6322,13 +6322,13 @@
         <v>25.3</v>
       </c>
       <c r="E170" t="n">
-        <v>25.3</v>
+        <v>24.6</v>
       </c>
       <c r="F170" t="n">
-        <v>100</v>
+        <v>4100</v>
       </c>
       <c r="G170" t="n">
-        <v>25.05000000000002</v>
+        <v>25.34999999999999</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="C171" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="D171" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="E171" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="F171" t="n">
-        <v>183.5882</v>
+        <v>100</v>
       </c>
       <c r="G171" t="n">
-        <v>25.05000000000002</v>
+        <v>25.33166666666665</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6386,19 +6386,19 @@
         <v>25.1</v>
       </c>
       <c r="C172" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="D172" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="E172" t="n">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="F172" t="n">
-        <v>20815.7955</v>
+        <v>183.5882</v>
       </c>
       <c r="G172" t="n">
-        <v>25.04000000000002</v>
+        <v>25.30499999999999</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="C173" t="n">
-        <v>24.4</v>
+        <v>25.4</v>
       </c>
       <c r="D173" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="E173" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="F173" t="n">
-        <v>18984.71</v>
+        <v>20815.7955</v>
       </c>
       <c r="G173" t="n">
-        <v>25.03000000000002</v>
+        <v>25.28833333333332</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="C174" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="D174" t="n">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="E174" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="F174" t="n">
-        <v>54529.3209</v>
+        <v>18984.71</v>
       </c>
       <c r="G174" t="n">
-        <v>25.00500000000002</v>
+        <v>25.26333333333332</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6500,10 +6500,10 @@
         <v>24.5</v>
       </c>
       <c r="F175" t="n">
-        <v>14844.0666</v>
+        <v>54529.3209</v>
       </c>
       <c r="G175" t="n">
-        <v>24.98000000000002</v>
+        <v>25.23666666666665</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6526,19 +6526,19 @@
         <v>24.5</v>
       </c>
       <c r="C176" t="n">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="D176" t="n">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="E176" t="n">
         <v>24.5</v>
       </c>
       <c r="F176" t="n">
-        <v>55491.7582</v>
+        <v>14844.0666</v>
       </c>
       <c r="G176" t="n">
-        <v>24.95500000000002</v>
+        <v>25.21166666666665</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="C177" t="n">
-        <v>24.7</v>
+        <v>25.3</v>
       </c>
       <c r="D177" t="n">
-        <v>24.7</v>
+        <v>25.3</v>
       </c>
       <c r="E177" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="F177" t="n">
-        <v>1311.01</v>
+        <v>55491.7582</v>
       </c>
       <c r="G177" t="n">
-        <v>24.92500000000002</v>
+        <v>25.19999999999999</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="C178" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="D178" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="E178" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="F178" t="n">
-        <v>11956.3888</v>
+        <v>1311.01</v>
       </c>
       <c r="G178" t="n">
-        <v>24.91000000000002</v>
+        <v>25.19999999999999</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,10 +6628,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C179" t="n">
         <v>25.2</v>
-      </c>
-      <c r="C179" t="n">
-        <v>24.8</v>
       </c>
       <c r="D179" t="n">
         <v>25.2</v>
@@ -6640,10 +6640,10 @@
         <v>24.8</v>
       </c>
       <c r="F179" t="n">
-        <v>20950.8887</v>
+        <v>11956.3888</v>
       </c>
       <c r="G179" t="n">
-        <v>24.91500000000002</v>
+        <v>25.19166666666665</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="C180" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="D180" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="E180" t="n">
         <v>24.8</v>
       </c>
       <c r="F180" t="n">
-        <v>77211.91469999999</v>
+        <v>20950.8887</v>
       </c>
       <c r="G180" t="n">
-        <v>24.92000000000002</v>
+        <v>25.18666666666665</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="C181" t="n">
-        <v>25.4</v>
+        <v>24.9</v>
       </c>
       <c r="D181" t="n">
         <v>25.4</v>
       </c>
       <c r="E181" t="n">
-        <v>25.4</v>
+        <v>24.8</v>
       </c>
       <c r="F181" t="n">
-        <v>10</v>
+        <v>77211.91469999999</v>
       </c>
       <c r="G181" t="n">
-        <v>24.93500000000002</v>
+        <v>25.18499999999999</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="C182" t="n">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
       <c r="D182" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="E182" t="n">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
       <c r="F182" t="n">
-        <v>66004.1302</v>
+        <v>10</v>
       </c>
       <c r="G182" t="n">
-        <v>24.93500000000002</v>
+        <v>25.19166666666666</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="C183" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="D183" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="E183" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="F183" t="n">
-        <v>21955.5467</v>
+        <v>66004.1302</v>
       </c>
       <c r="G183" t="n">
-        <v>24.92500000000002</v>
+        <v>25.18999999999999</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>25.4</v>
+        <v>24.8</v>
       </c>
       <c r="C184" t="n">
         <v>24.8</v>
       </c>
       <c r="D184" t="n">
-        <v>25.4</v>
+        <v>24.8</v>
       </c>
       <c r="E184" t="n">
         <v>24.8</v>
       </c>
       <c r="F184" t="n">
-        <v>2100</v>
+        <v>21955.5467</v>
       </c>
       <c r="G184" t="n">
-        <v>24.94500000000001</v>
+        <v>25.18333333333332</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C185" t="n">
         <v>24.8</v>
-      </c>
-      <c r="C185" t="n">
-        <v>25.4</v>
       </c>
       <c r="D185" t="n">
         <v>25.4</v>
       </c>
       <c r="E185" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="F185" t="n">
-        <v>160368.0052</v>
+        <v>2100</v>
       </c>
       <c r="G185" t="n">
-        <v>24.94000000000002</v>
+        <v>25.17833333333332</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,7 +6873,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>25.4</v>
+        <v>24.8</v>
       </c>
       <c r="C186" t="n">
         <v>25.4</v>
@@ -6882,13 +6882,13 @@
         <v>25.4</v>
       </c>
       <c r="E186" t="n">
-        <v>25.4</v>
+        <v>24.5</v>
       </c>
       <c r="F186" t="n">
-        <v>4011.299212598425</v>
+        <v>160368.0052</v>
       </c>
       <c r="G186" t="n">
-        <v>24.98000000000001</v>
+        <v>25.18333333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
       <c r="C187" t="n">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
       <c r="D187" t="n">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
       <c r="E187" t="n">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
       <c r="F187" t="n">
-        <v>2000</v>
+        <v>4011.299212598425</v>
       </c>
       <c r="G187" t="n">
-        <v>24.99500000000001</v>
+        <v>25.18833333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C188" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="D188" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E188" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="F188" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="G188" t="n">
-        <v>24.99000000000001</v>
+        <v>25.17666666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C189" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="D189" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="E189" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="F189" t="n">
-        <v>210.5492</v>
+        <v>8000</v>
       </c>
       <c r="G189" t="n">
-        <v>24.98000000000001</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="C190" t="n">
-        <v>25.3</v>
+        <v>24.9</v>
       </c>
       <c r="D190" t="n">
-        <v>25.3</v>
+        <v>24.9</v>
       </c>
       <c r="E190" t="n">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="F190" t="n">
-        <v>63771.67</v>
+        <v>210.5492</v>
       </c>
       <c r="G190" t="n">
-        <v>24.97000000000001</v>
+        <v>25.165</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="C191" t="n">
-        <v>24.7</v>
+        <v>25.3</v>
       </c>
       <c r="D191" t="n">
         <v>25.3</v>
       </c>
       <c r="E191" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="F191" t="n">
-        <v>14283.7727</v>
+        <v>63771.67</v>
       </c>
       <c r="G191" t="n">
-        <v>24.96000000000001</v>
+        <v>25.16333333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7083,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C192" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="D192" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="E192" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="F192" t="n">
-        <v>13531.98</v>
+        <v>14283.7727</v>
       </c>
       <c r="G192" t="n">
-        <v>24.95500000000001</v>
+        <v>25.15833333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7118,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="C193" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="D193" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="E193" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="F193" t="n">
-        <v>8000</v>
+        <v>13531.98</v>
       </c>
       <c r="G193" t="n">
-        <v>24.945</v>
+        <v>25.14833333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="C194" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="D194" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="E194" t="n">
-        <v>25</v>
+        <v>24.7</v>
       </c>
       <c r="F194" t="n">
-        <v>80</v>
+        <v>8000</v>
       </c>
       <c r="G194" t="n">
-        <v>24.97000000000001</v>
+        <v>25.13666666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="C195" t="n">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="D195" t="n">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="E195" t="n">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="F195" t="n">
-        <v>18300.2056</v>
+        <v>80</v>
       </c>
       <c r="G195" t="n">
-        <v>24.965</v>
+        <v>25.12833333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="C196" t="n">
         <v>24.4</v>
       </c>
       <c r="D196" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="E196" t="n">
         <v>24.4</v>
       </c>
       <c r="F196" t="n">
-        <v>60100</v>
+        <v>18300.2056</v>
       </c>
       <c r="G196" t="n">
-        <v>24.965</v>
+        <v>25.11833333333334</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7258,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="C197" t="n">
         <v>24.4</v>
       </c>
       <c r="D197" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="E197" t="n">
         <v>24.4</v>
       </c>
       <c r="F197" t="n">
-        <v>5941.4978</v>
+        <v>60100</v>
       </c>
       <c r="G197" t="n">
-        <v>24.95</v>
+        <v>25.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7296,19 +7296,19 @@
         <v>24.4</v>
       </c>
       <c r="C198" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="D198" t="n">
         <v>24.4</v>
       </c>
       <c r="E198" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="F198" t="n">
-        <v>42986.0974</v>
+        <v>5941.4978</v>
       </c>
       <c r="G198" t="n">
-        <v>24.93</v>
+        <v>25.08333333333334</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7328,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="C199" t="n">
         <v>24.2</v>
       </c>
-      <c r="C199" t="n">
-        <v>24.1</v>
-      </c>
       <c r="D199" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="E199" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="F199" t="n">
-        <v>57981.8828</v>
+        <v>42986.0974</v>
       </c>
       <c r="G199" t="n">
-        <v>24.88</v>
+        <v>25.06166666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7363,22 +7363,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C200" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="D200" t="n">
         <v>24.7</v>
       </c>
-      <c r="C200" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="D200" t="n">
-        <v>24.8</v>
-      </c>
       <c r="E200" t="n">
-        <v>24.7</v>
+        <v>24.1</v>
       </c>
       <c r="F200" t="n">
-        <v>21687.4654</v>
+        <v>57981.8828</v>
       </c>
       <c r="G200" t="n">
-        <v>24.85</v>
+        <v>25.035</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7398,22 +7398,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="C201" t="n">
         <v>24.8</v>
       </c>
       <c r="D201" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="E201" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="F201" t="n">
-        <v>14741.65</v>
+        <v>21687.4654</v>
       </c>
       <c r="G201" t="n">
-        <v>24.82500000000001</v>
+        <v>25.02333333333333</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7436,19 +7436,19 @@
         <v>24.9</v>
       </c>
       <c r="C202" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="D202" t="n">
         <v>24.9</v>
       </c>
       <c r="E202" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="F202" t="n">
-        <v>2000</v>
+        <v>14741.65</v>
       </c>
       <c r="G202" t="n">
-        <v>24.82</v>
+        <v>25.01166666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,22 +7468,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="C203" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="D203" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="E203" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="F203" t="n">
-        <v>95583.72779999999</v>
+        <v>2000</v>
       </c>
       <c r="G203" t="n">
-        <v>24.82</v>
+        <v>24.99833333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7515,10 +7515,10 @@
         <v>24.8</v>
       </c>
       <c r="F204" t="n">
-        <v>52.47</v>
+        <v>95583.72779999999</v>
       </c>
       <c r="G204" t="n">
-        <v>24.79</v>
+        <v>24.98333333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7541,19 +7541,19 @@
         <v>24.8</v>
       </c>
       <c r="C205" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="D205" t="n">
         <v>24.8</v>
       </c>
       <c r="E205" t="n">
-        <v>24.1</v>
+        <v>24.8</v>
       </c>
       <c r="F205" t="n">
-        <v>135282.9349</v>
+        <v>52.47</v>
       </c>
       <c r="G205" t="n">
-        <v>24.79</v>
+        <v>24.96833333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="C206" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="D206" t="n">
         <v>24.8</v>
       </c>
       <c r="E206" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="F206" t="n">
-        <v>21059</v>
+        <v>135282.9349</v>
       </c>
       <c r="G206" t="n">
-        <v>24.735</v>
+        <v>24.95</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +7608,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="C207" t="n">
-        <v>25.6</v>
+        <v>24.7</v>
       </c>
       <c r="D207" t="n">
-        <v>25.6</v>
+        <v>24.8</v>
       </c>
       <c r="E207" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="F207" t="n">
-        <v>250506.4430972656</v>
+        <v>21059</v>
       </c>
       <c r="G207" t="n">
-        <v>24.72000000000001</v>
+        <v>24.93333333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,22 +7643,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="C208" t="n">
-        <v>25</v>
+        <v>25.6</v>
       </c>
       <c r="D208" t="n">
-        <v>25</v>
+        <v>25.6</v>
       </c>
       <c r="E208" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="F208" t="n">
-        <v>90013.3027</v>
+        <v>250506.4430972656</v>
       </c>
       <c r="G208" t="n">
-        <v>24.715</v>
+        <v>24.93166666666666</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,10 +7678,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C209" t="n">
         <v>25</v>
-      </c>
-      <c r="C209" t="n">
-        <v>24.9</v>
       </c>
       <c r="D209" t="n">
         <v>25</v>
@@ -7690,10 +7690,10 @@
         <v>24.9</v>
       </c>
       <c r="F209" t="n">
-        <v>27261.7215</v>
+        <v>90013.3027</v>
       </c>
       <c r="G209" t="n">
-        <v>24.72000000000001</v>
+        <v>24.91999999999999</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7713,22 +7713,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="C210" t="n">
         <v>24.9</v>
       </c>
       <c r="D210" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="E210" t="n">
         <v>24.9</v>
       </c>
       <c r="F210" t="n">
-        <v>417.8514</v>
+        <v>27261.7215</v>
       </c>
       <c r="G210" t="n">
-        <v>24.71</v>
+        <v>24.915</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,22 +7748,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>24.3</v>
+        <v>24.9</v>
       </c>
       <c r="C211" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="D211" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="E211" t="n">
-        <v>24.3</v>
+        <v>24.9</v>
       </c>
       <c r="F211" t="n">
-        <v>20743.7809</v>
+        <v>417.8514</v>
       </c>
       <c r="G211" t="n">
-        <v>24.68</v>
+        <v>24.91166666666667</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,22 +7783,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="C212" t="n">
-        <v>23.4</v>
+        <v>24.7</v>
       </c>
       <c r="D212" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="E212" t="n">
-        <v>23.4</v>
+        <v>24.3</v>
       </c>
       <c r="F212" t="n">
-        <v>249880.1769</v>
+        <v>20743.7809</v>
       </c>
       <c r="G212" t="n">
-        <v>24.66</v>
+        <v>24.905</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7818,22 +7818,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="C213" t="n">
-        <v>24.9</v>
+        <v>23.4</v>
       </c>
       <c r="D213" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="E213" t="n">
-        <v>24.8</v>
+        <v>23.4</v>
       </c>
       <c r="F213" t="n">
-        <v>12000</v>
+        <v>249880.1769</v>
       </c>
       <c r="G213" t="n">
-        <v>24.66</v>
+        <v>24.875</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,7 +7853,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="C214" t="n">
         <v>24.9</v>
@@ -7865,10 +7865,10 @@
         <v>24.8</v>
       </c>
       <c r="F214" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="G214" t="n">
-        <v>24.655</v>
+        <v>24.87333333333333</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7897,13 +7897,13 @@
         <v>24.9</v>
       </c>
       <c r="E215" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="F215" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="G215" t="n">
-        <v>24.68</v>
+        <v>24.86666666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7935,10 +7935,10 @@
         <v>24.9</v>
       </c>
       <c r="F216" t="n">
-        <v>13561.3373</v>
+        <v>2000</v>
       </c>
       <c r="G216" t="n">
-        <v>24.7</v>
+        <v>24.86500000000001</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>24.9</v>
       </c>
       <c r="F217" t="n">
-        <v>20887.8312</v>
+        <v>13561.3373</v>
       </c>
       <c r="G217" t="n">
-        <v>24.725</v>
+        <v>24.86333333333334</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,22 +7993,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>25.3</v>
+        <v>24.9</v>
       </c>
       <c r="C218" t="n">
-        <v>25.3</v>
+        <v>24.9</v>
       </c>
       <c r="D218" t="n">
-        <v>25.3</v>
+        <v>24.9</v>
       </c>
       <c r="E218" t="n">
-        <v>25.3</v>
+        <v>24.9</v>
       </c>
       <c r="F218" t="n">
-        <v>10</v>
+        <v>20887.8312</v>
       </c>
       <c r="G218" t="n">
-        <v>24.77</v>
+        <v>24.85500000000001</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,22 +8028,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="C219" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="D219" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="E219" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="F219" t="n">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="G219" t="n">
-        <v>24.81</v>
+        <v>24.85833333333334</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8066,19 +8066,19 @@
         <v>25</v>
       </c>
       <c r="C220" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="D220" t="n">
         <v>25</v>
       </c>
       <c r="E220" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="F220" t="n">
         <v>4000</v>
       </c>
       <c r="G220" t="n">
-        <v>24.825</v>
+        <v>24.85666666666668</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8098,22 +8098,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="C221" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="D221" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="E221" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="F221" t="n">
-        <v>5862.589</v>
+        <v>4000</v>
       </c>
       <c r="G221" t="n">
-        <v>24.81</v>
+        <v>24.84666666666668</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8133,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="C222" t="n">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="D222" t="n">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="E222" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="F222" t="n">
-        <v>10000</v>
+        <v>5862.589</v>
       </c>
       <c r="G222" t="n">
-        <v>24.81</v>
+        <v>24.84000000000001</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8168,7 +8168,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="C223" t="n">
         <v>25</v>
@@ -8177,13 +8177,13 @@
         <v>25</v>
       </c>
       <c r="E223" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="F223" t="n">
-        <v>3657.8963</v>
+        <v>10000</v>
       </c>
       <c r="G223" t="n">
-        <v>24.82</v>
+        <v>24.84000000000001</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,22 +8203,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="C224" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="D224" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="E224" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="F224" t="n">
-        <v>39719.5729</v>
+        <v>3657.8963</v>
       </c>
       <c r="G224" t="n">
-        <v>24.845</v>
+        <v>24.84000000000001</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8238,22 +8238,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="C225" t="n">
         <v>25.3</v>
       </c>
       <c r="D225" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="E225" t="n">
         <v>25.3</v>
       </c>
       <c r="F225" t="n">
-        <v>29982.8341</v>
+        <v>39719.5729</v>
       </c>
       <c r="G225" t="n">
-        <v>24.875</v>
+        <v>24.84500000000001</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8276,19 +8276,19 @@
         <v>25.4</v>
       </c>
       <c r="C226" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="D226" t="n">
         <v>25.4</v>
       </c>
       <c r="E226" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="F226" t="n">
-        <v>9842.51968503937</v>
+        <v>29982.8341</v>
       </c>
       <c r="G226" t="n">
-        <v>24.93</v>
+        <v>24.85166666666667</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8308,22 +8308,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="C227" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="D227" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="E227" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="F227" t="n">
-        <v>16352.95063897638</v>
+        <v>9842.51968503937</v>
       </c>
       <c r="G227" t="n">
-        <v>24.965</v>
+        <v>24.86500000000001</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="C228" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="D228" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="E228" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="F228" t="n">
-        <v>13950</v>
+        <v>16352.95063897638</v>
       </c>
       <c r="G228" t="n">
-        <v>24.96</v>
+        <v>24.86333333333334</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8381,19 +8381,19 @@
         <v>24.8</v>
       </c>
       <c r="C229" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="D229" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="E229" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="F229" t="n">
-        <v>10632</v>
+        <v>13950</v>
       </c>
       <c r="G229" t="n">
-        <v>24.95</v>
+        <v>24.86833333333335</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8413,22 +8413,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>25.3</v>
+        <v>24.8</v>
       </c>
       <c r="C230" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="D230" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="E230" t="n">
-        <v>25.3</v>
+        <v>24.4</v>
       </c>
       <c r="F230" t="n">
-        <v>15681.25</v>
+        <v>10632</v>
       </c>
       <c r="G230" t="n">
-        <v>24.97</v>
+        <v>24.87166666666668</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8460,10 +8460,10 @@
         <v>25.3</v>
       </c>
       <c r="F231" t="n">
-        <v>5234.5998</v>
+        <v>15681.25</v>
       </c>
       <c r="G231" t="n">
-        <v>25.02</v>
+        <v>24.87166666666668</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8483,22 +8483,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="C232" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="D232" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="E232" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="F232" t="n">
-        <v>521.532</v>
+        <v>5234.5998</v>
       </c>
       <c r="G232" t="n">
-        <v>25.02999999999999</v>
+        <v>24.87500000000001</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8518,22 +8518,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="C233" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="D233" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="E233" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="F233" t="n">
-        <v>5952.3809</v>
+        <v>521.532</v>
       </c>
       <c r="G233" t="n">
-        <v>25.05</v>
+        <v>24.86500000000001</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8553,22 +8553,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="C234" t="n">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="D234" t="n">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="E234" t="n">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="F234" t="n">
-        <v>4001.2709</v>
+        <v>5952.3809</v>
       </c>
       <c r="G234" t="n">
-        <v>25.04</v>
+        <v>24.87833333333334</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8588,22 +8588,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="C235" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="D235" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="E235" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="F235" t="n">
-        <v>535.78</v>
+        <v>4001.2709</v>
       </c>
       <c r="G235" t="n">
-        <v>25.04</v>
+        <v>24.88166666666668</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8626,19 +8626,19 @@
         <v>24.9</v>
       </c>
       <c r="C236" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="D236" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="E236" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="F236" t="n">
-        <v>9787.41</v>
+        <v>535.78</v>
       </c>
       <c r="G236" t="n">
-        <v>25.04</v>
+        <v>24.88833333333335</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8658,22 +8658,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="C237" t="n">
         <v>24.7</v>
       </c>
       <c r="D237" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="E237" t="n">
         <v>24.7</v>
       </c>
       <c r="F237" t="n">
-        <v>5830.9388</v>
+        <v>9787.41</v>
       </c>
       <c r="G237" t="n">
-        <v>25.035</v>
+        <v>24.87833333333335</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="C238" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
       <c r="D238" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="E238" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="F238" t="n">
-        <v>3977.40669047619</v>
+        <v>5830.9388</v>
       </c>
       <c r="G238" t="n">
-        <v>25.025</v>
+        <v>24.87833333333335</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8728,22 +8728,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="C239" t="n">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="D239" t="n">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="E239" t="n">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="F239" t="n">
-        <v>14105.5603</v>
+        <v>3977.40669047619</v>
       </c>
       <c r="G239" t="n">
-        <v>25.01</v>
+        <v>24.87833333333335</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8763,22 +8763,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="C240" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="D240" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="E240" t="n">
-        <v>23.9</v>
+        <v>24.7</v>
       </c>
       <c r="F240" t="n">
-        <v>60280.9363</v>
+        <v>14105.5603</v>
       </c>
       <c r="G240" t="n">
-        <v>24.97499999999999</v>
+        <v>24.87666666666668</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8801,19 +8801,19 @@
         <v>24.3</v>
       </c>
       <c r="C241" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="D241" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="E241" t="n">
         <v>23.9</v>
       </c>
       <c r="F241" t="n">
-        <v>83236.86930000001</v>
+        <v>60280.9363</v>
       </c>
       <c r="G241" t="n">
-        <v>24.95999999999999</v>
+        <v>24.88000000000001</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8833,22 +8833,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="C242" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="D242" t="n">
         <v>24.9</v>
       </c>
       <c r="E242" t="n">
-        <v>24.3</v>
+        <v>23.9</v>
       </c>
       <c r="F242" t="n">
-        <v>9825</v>
+        <v>83236.86930000001</v>
       </c>
       <c r="G242" t="n">
-        <v>24.93499999999999</v>
+        <v>24.87166666666668</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8874,16 +8874,16 @@
         <v>24.8</v>
       </c>
       <c r="D243" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="E243" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="F243" t="n">
-        <v>23494</v>
+        <v>9825</v>
       </c>
       <c r="G243" t="n">
-        <v>24.90499999999999</v>
+        <v>24.87000000000001</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8903,22 +8903,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="C244" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="D244" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="E244" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="F244" t="n">
-        <v>4977.4067</v>
+        <v>23494</v>
       </c>
       <c r="G244" t="n">
-        <v>24.86999999999999</v>
+        <v>24.87000000000001</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8938,10 +8938,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C245" t="n">
         <v>24.3</v>
-      </c>
-      <c r="C245" t="n">
-        <v>24.5</v>
       </c>
       <c r="D245" t="n">
         <v>24.6</v>
@@ -8950,10 +8950,10 @@
         <v>24.3</v>
       </c>
       <c r="F245" t="n">
-        <v>38579.0622</v>
+        <v>4977.4067</v>
       </c>
       <c r="G245" t="n">
-        <v>24.81499999999999</v>
+        <v>24.86166666666668</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8973,7 +8973,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="C246" t="n">
         <v>24.5</v>
@@ -8982,13 +8982,13 @@
         <v>24.6</v>
       </c>
       <c r="E246" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="F246" t="n">
-        <v>20</v>
+        <v>38579.0622</v>
       </c>
       <c r="G246" t="n">
-        <v>24.775</v>
+        <v>24.84666666666668</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9008,22 +9008,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="C247" t="n">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="D247" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="E247" t="n">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="F247" t="n">
-        <v>10902.4098</v>
+        <v>20</v>
       </c>
       <c r="G247" t="n">
-        <v>24.72999999999999</v>
+        <v>24.83166666666667</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9043,22 +9043,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="C248" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="D248" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="E248" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="F248" t="n">
-        <v>51341.6049</v>
+        <v>10902.4098</v>
       </c>
       <c r="G248" t="n">
-        <v>24.70499999999999</v>
+        <v>24.81833333333334</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9078,7 +9078,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="C249" t="n">
         <v>24.3</v>
@@ -9087,13 +9087,13 @@
         <v>24.3</v>
       </c>
       <c r="E249" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="F249" t="n">
-        <v>3099</v>
+        <v>51341.6049</v>
       </c>
       <c r="G249" t="n">
-        <v>24.67499999999999</v>
+        <v>24.81666666666667</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9116,19 +9116,19 @@
         <v>24.2</v>
       </c>
       <c r="C250" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="D250" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="E250" t="n">
         <v>24.2</v>
       </c>
       <c r="F250" t="n">
-        <v>47867.6927</v>
+        <v>3099</v>
       </c>
       <c r="G250" t="n">
-        <v>24.61999999999999</v>
+        <v>24.80666666666667</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9157,13 +9157,13 @@
         <v>24.2</v>
       </c>
       <c r="E251" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="F251" t="n">
-        <v>138721</v>
+        <v>47867.6927</v>
       </c>
       <c r="G251" t="n">
-        <v>24.56499999999999</v>
+        <v>24.78833333333334</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9183,7 +9183,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="C252" t="n">
         <v>24.2</v>
@@ -9195,10 +9195,10 @@
         <v>24.1</v>
       </c>
       <c r="F252" t="n">
-        <v>13944</v>
+        <v>138721</v>
       </c>
       <c r="G252" t="n">
-        <v>24.52999999999999</v>
+        <v>24.78</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9218,22 +9218,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="C253" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="D253" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="E253" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="F253" t="n">
-        <v>32719.2812</v>
+        <v>13944</v>
       </c>
       <c r="G253" t="n">
-        <v>24.46999999999998</v>
+        <v>24.77666666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9262,13 +9262,13 @@
         <v>24</v>
       </c>
       <c r="E254" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="F254" t="n">
-        <v>258044.9618</v>
+        <v>32719.2812</v>
       </c>
       <c r="G254" t="n">
-        <v>24.43499999999998</v>
+        <v>24.765</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9288,22 +9288,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="C255" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="D255" t="n">
+        <v>24</v>
+      </c>
+      <c r="E255" t="n">
         <v>23.6</v>
       </c>
-      <c r="E255" t="n">
-        <v>23.5</v>
-      </c>
       <c r="F255" t="n">
-        <v>192268.34</v>
+        <v>258044.9618</v>
       </c>
       <c r="G255" t="n">
-        <v>24.36499999999998</v>
+        <v>24.74833333333333</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9329,16 +9329,16 @@
         <v>23.5</v>
       </c>
       <c r="D256" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="E256" t="n">
         <v>23.5</v>
       </c>
       <c r="F256" t="n">
-        <v>7587.9562</v>
+        <v>192268.34</v>
       </c>
       <c r="G256" t="n">
-        <v>24.29499999999998</v>
+        <v>24.73333333333333</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9358,22 +9358,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="C257" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="D257" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="E257" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="F257" t="n">
-        <v>15743.8333</v>
+        <v>7587.9562</v>
       </c>
       <c r="G257" t="n">
-        <v>24.23999999999998</v>
+        <v>24.71833333333333</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9393,22 +9393,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="C258" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="D258" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="E258" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="F258" t="n">
-        <v>76331.35799999999</v>
+        <v>15743.8333</v>
       </c>
       <c r="G258" t="n">
-        <v>24.19499999999998</v>
+        <v>24.70666666666666</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9428,22 +9428,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="C259" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="D259" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="E259" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="F259" t="n">
-        <v>19700</v>
+        <v>76331.35799999999</v>
       </c>
       <c r="G259" t="n">
-        <v>24.15499999999998</v>
+        <v>24.7</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="C260" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="D260" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="E260" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="F260" t="n">
-        <v>52193.03</v>
+        <v>19700</v>
       </c>
       <c r="G260" t="n">
-        <v>24.14499999999998</v>
+        <v>24.69666666666667</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9501,19 +9501,19 @@
         <v>24.1</v>
       </c>
       <c r="C261" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="D261" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="E261" t="n">
         <v>24</v>
       </c>
       <c r="F261" t="n">
-        <v>34000</v>
+        <v>52193.03</v>
       </c>
       <c r="G261" t="n">
-        <v>24.13499999999998</v>
+        <v>24.685</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9533,10 +9533,10 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C262" t="n">
         <v>24</v>
-      </c>
-      <c r="C262" t="n">
-        <v>24.2</v>
       </c>
       <c r="D262" t="n">
         <v>24.2</v>
@@ -9545,10 +9545,10 @@
         <v>24</v>
       </c>
       <c r="F262" t="n">
-        <v>45784</v>
+        <v>34000</v>
       </c>
       <c r="G262" t="n">
-        <v>24.11499999999998</v>
+        <v>24.67166666666667</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9568,10 +9568,10 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="C263" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="D263" t="n">
         <v>24.2</v>
@@ -9580,10 +9580,10 @@
         <v>24</v>
       </c>
       <c r="F263" t="n">
-        <v>20049</v>
+        <v>45784</v>
       </c>
       <c r="G263" t="n">
-        <v>24.09999999999998</v>
+        <v>24.66</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9603,22 +9603,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="C264" t="n">
         <v>24.1</v>
       </c>
       <c r="D264" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="E264" t="n">
         <v>24</v>
       </c>
       <c r="F264" t="n">
-        <v>9456</v>
+        <v>20049</v>
       </c>
       <c r="G264" t="n">
-        <v>24.06999999999998</v>
+        <v>24.64833333333333</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="C265" t="n">
         <v>24.1</v>
@@ -9647,13 +9647,13 @@
         <v>24.1</v>
       </c>
       <c r="E265" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="F265" t="n">
-        <v>10672</v>
+        <v>9456</v>
       </c>
       <c r="G265" t="n">
-        <v>24.03999999999998</v>
+        <v>24.63666666666666</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9673,22 +9673,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="C266" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="D266" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="E266" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="F266" t="n">
-        <v>7780</v>
+        <v>10672</v>
       </c>
       <c r="G266" t="n">
-        <v>24.00999999999998</v>
+        <v>24.62833333333333</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9711,19 +9711,19 @@
         <v>24</v>
       </c>
       <c r="C267" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="D267" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="E267" t="n">
         <v>24</v>
       </c>
       <c r="F267" t="n">
-        <v>7261</v>
+        <v>7780</v>
       </c>
       <c r="G267" t="n">
-        <v>23.98999999999998</v>
+        <v>24.62</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9743,7 +9743,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="C268" t="n">
         <v>24</v>
@@ -9752,13 +9752,13 @@
         <v>24</v>
       </c>
       <c r="E268" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="F268" t="n">
-        <v>124</v>
+        <v>7261</v>
       </c>
       <c r="G268" t="n">
-        <v>23.96999999999998</v>
+        <v>24.59333333333333</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9778,22 +9778,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="C269" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="D269" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="E269" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="F269" t="n">
-        <v>8200</v>
+        <v>124</v>
       </c>
       <c r="G269" t="n">
-        <v>23.94999999999998</v>
+        <v>24.57666666666666</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9813,22 +9813,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="C270" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="D270" t="n">
-        <v>24.5</v>
+        <v>23.8</v>
       </c>
       <c r="E270" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="F270" t="n">
-        <v>199181</v>
+        <v>8200</v>
       </c>
       <c r="G270" t="n">
-        <v>23.93999999999998</v>
+        <v>24.55833333333333</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9854,16 +9854,16 @@
         <v>23.9</v>
       </c>
       <c r="D271" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="E271" t="n">
         <v>23.9</v>
       </c>
       <c r="F271" t="n">
-        <v>18103.5414</v>
+        <v>199181</v>
       </c>
       <c r="G271" t="n">
-        <v>23.92999999999998</v>
+        <v>24.54166666666666</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9883,22 +9883,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="C272" t="n">
         <v>23.9</v>
       </c>
       <c r="D272" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="E272" t="n">
         <v>23.9</v>
       </c>
       <c r="F272" t="n">
-        <v>6240.918</v>
+        <v>18103.5414</v>
       </c>
       <c r="G272" t="n">
-        <v>23.91999999999998</v>
+        <v>24.52833333333333</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9930,10 +9930,10 @@
         <v>23.9</v>
       </c>
       <c r="F273" t="n">
-        <v>498.66</v>
+        <v>6240.918</v>
       </c>
       <c r="G273" t="n">
-        <v>23.91499999999998</v>
+        <v>24.53666666666667</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9965,10 +9965,10 @@
         <v>23.9</v>
       </c>
       <c r="F274" t="n">
-        <v>1000.7493</v>
+        <v>498.66</v>
       </c>
       <c r="G274" t="n">
-        <v>23.90999999999998</v>
+        <v>24.52</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -9988,22 +9988,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="C275" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="D275" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="E275" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="F275" t="n">
-        <v>28810.3639</v>
+        <v>1000.7493</v>
       </c>
       <c r="G275" t="n">
-        <v>23.91999999999998</v>
+        <v>24.50333333333333</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10026,19 +10026,19 @@
         <v>23.7</v>
       </c>
       <c r="C276" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="D276" t="n">
         <v>23.7</v>
       </c>
       <c r="E276" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="F276" t="n">
-        <v>1000</v>
+        <v>28810.3639</v>
       </c>
       <c r="G276" t="n">
-        <v>23.92999999999997</v>
+        <v>24.48166666666666</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10058,22 +10058,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="C277" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="D277" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="E277" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="F277" t="n">
-        <v>29232.8716</v>
+        <v>1000</v>
       </c>
       <c r="G277" t="n">
-        <v>23.92499999999998</v>
+        <v>24.46166666666666</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10093,22 +10093,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="C278" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="D278" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="E278" t="n">
         <v>23.2</v>
       </c>
       <c r="F278" t="n">
-        <v>80221.6538</v>
+        <v>29232.8716</v>
       </c>
       <c r="G278" t="n">
-        <v>23.88999999999998</v>
+        <v>24.43333333333333</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10128,22 +10128,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="C279" t="n">
         <v>23.8</v>
       </c>
       <c r="D279" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="E279" t="n">
         <v>23.2</v>
       </c>
       <c r="F279" t="n">
-        <v>414041.0294</v>
+        <v>80221.6538</v>
       </c>
       <c r="G279" t="n">
-        <v>23.86499999999998</v>
+        <v>24.40833333333332</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10163,22 +10163,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="C280" t="n">
         <v>23.8</v>
       </c>
       <c r="D280" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="E280" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F280" t="n">
-        <v>6000</v>
+        <v>414041.0294</v>
       </c>
       <c r="G280" t="n">
-        <v>23.82499999999998</v>
+        <v>24.38833333333332</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10198,22 +10198,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="C281" t="n">
-        <v>22.5</v>
+        <v>23.8</v>
       </c>
       <c r="D281" t="n">
-        <v>23.1</v>
+        <v>23.8</v>
       </c>
       <c r="E281" t="n">
-        <v>22.5</v>
+        <v>23.3</v>
       </c>
       <c r="F281" t="n">
-        <v>191489.6646</v>
+        <v>6000</v>
       </c>
       <c r="G281" t="n">
-        <v>23.77499999999998</v>
+        <v>24.37666666666666</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10233,22 +10233,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>23.6</v>
+        <v>23.1</v>
       </c>
       <c r="C282" t="n">
-        <v>23.4</v>
+        <v>22.5</v>
       </c>
       <c r="D282" t="n">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="E282" t="n">
-        <v>23.4</v>
+        <v>22.5</v>
       </c>
       <c r="F282" t="n">
-        <v>27142.4059</v>
+        <v>191489.6646</v>
       </c>
       <c r="G282" t="n">
-        <v>23.75499999999998</v>
+        <v>24.34166666666666</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10268,22 +10268,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C283" t="n">
         <v>23.4</v>
       </c>
-      <c r="C283" t="n">
-        <v>23.5</v>
-      </c>
       <c r="D283" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="E283" t="n">
         <v>23.4</v>
       </c>
       <c r="F283" t="n">
-        <v>76225</v>
+        <v>27142.4059</v>
       </c>
       <c r="G283" t="n">
-        <v>23.71999999999998</v>
+        <v>24.31499999999999</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10303,22 +10303,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="C284" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="D284" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="E284" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="F284" t="n">
-        <v>14000</v>
+        <v>76225</v>
       </c>
       <c r="G284" t="n">
-        <v>23.68499999999998</v>
+        <v>24.29</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10338,22 +10338,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="C285" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="D285" t="n">
-        <v>23</v>
+        <v>23.6</v>
       </c>
       <c r="E285" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="F285" t="n">
-        <v>6705.4986</v>
+        <v>14000</v>
       </c>
       <c r="G285" t="n">
-        <v>23.64999999999998</v>
+        <v>24.25666666666666</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10385,10 +10385,10 @@
         <v>23</v>
       </c>
       <c r="F286" t="n">
-        <v>22718.5569</v>
+        <v>6705.4986</v>
       </c>
       <c r="G286" t="n">
-        <v>23.59999999999998</v>
+        <v>24.21833333333333</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10414,16 +10414,16 @@
         <v>23</v>
       </c>
       <c r="D287" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="E287" t="n">
         <v>23</v>
       </c>
       <c r="F287" t="n">
-        <v>17841</v>
+        <v>22718.5569</v>
       </c>
       <c r="G287" t="n">
-        <v>23.54999999999998</v>
+        <v>24.17833333333333</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10446,19 +10446,19 @@
         <v>23</v>
       </c>
       <c r="C288" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="D288" t="n">
         <v>23.3</v>
       </c>
       <c r="E288" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="F288" t="n">
-        <v>113816.79</v>
+        <v>17841</v>
       </c>
       <c r="G288" t="n">
-        <v>23.50499999999998</v>
+        <v>24.14499999999999</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10478,22 +10478,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="C289" t="n">
         <v>22.8</v>
       </c>
       <c r="D289" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E289" t="n">
         <v>22.8</v>
       </c>
-      <c r="E289" t="n">
-        <v>22.7</v>
-      </c>
       <c r="F289" t="n">
-        <v>23172</v>
+        <v>113816.79</v>
       </c>
       <c r="G289" t="n">
-        <v>23.44999999999998</v>
+        <v>24.10166666666666</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10513,22 +10513,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="C290" t="n">
         <v>22.8</v>
       </c>
       <c r="D290" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="E290" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="F290" t="n">
-        <v>4500</v>
+        <v>23172</v>
       </c>
       <c r="G290" t="n">
-        <v>23.39499999999997</v>
+        <v>24.05666666666666</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10548,10 +10548,10 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C291" t="n">
         <v>22.8</v>
-      </c>
-      <c r="C291" t="n">
-        <v>22.9</v>
       </c>
       <c r="D291" t="n">
         <v>22.9</v>
@@ -10560,10 +10560,10 @@
         <v>22.8</v>
       </c>
       <c r="F291" t="n">
-        <v>2100</v>
+        <v>4500</v>
       </c>
       <c r="G291" t="n">
-        <v>23.33499999999998</v>
+        <v>24.01499999999999</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10583,22 +10583,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="C292" t="n">
-        <v>22.5</v>
+        <v>22.9</v>
       </c>
       <c r="D292" t="n">
-        <v>22.5</v>
+        <v>22.9</v>
       </c>
       <c r="E292" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="F292" t="n">
-        <v>8478.5738</v>
+        <v>2100</v>
       </c>
       <c r="G292" t="n">
-        <v>23.26499999999998</v>
+        <v>23.97499999999999</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10618,22 +10618,22 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="C293" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="D293" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="E293" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="F293" t="n">
-        <v>27800</v>
+        <v>8478.5738</v>
       </c>
       <c r="G293" t="n">
-        <v>23.18999999999998</v>
+        <v>23.93666666666666</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10653,35 +10653,31 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="C294" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="D294" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="E294" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="F294" t="n">
-        <v>3896.6821</v>
+        <v>27800</v>
       </c>
       <c r="G294" t="n">
-        <v>23.11999999999998</v>
+        <v>23.88999999999999</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K294" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
@@ -10692,40 +10688,32 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="C295" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="D295" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="E295" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="F295" t="n">
-        <v>22000</v>
+        <v>3896.6821</v>
       </c>
       <c r="G295" t="n">
-        <v>23.06999999999998</v>
+        <v>23.85333333333333</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K295" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10735,40 +10723,32 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="C296" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="D296" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="E296" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="F296" t="n">
-        <v>32388.6725</v>
+        <v>22000</v>
       </c>
       <c r="G296" t="n">
-        <v>23.01499999999998</v>
+        <v>23.81666666666666</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K296" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10778,83 +10758,77 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C297" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D297" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E297" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="F297" t="n">
+        <v>32388.6725</v>
+      </c>
+      <c r="G297" t="n">
+        <v>23.78166666666666</v>
+      </c>
+      <c r="H297" t="n">
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="K297" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
         <v>22.5</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C298" t="n">
         <v>22.4</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D298" t="n">
         <v>22.5</v>
       </c>
-      <c r="E297" t="n">
+      <c r="E298" t="n">
         <v>22.4</v>
       </c>
-      <c r="F297" t="n">
+      <c r="F298" t="n">
         <v>26243.8711</v>
       </c>
-      <c r="G297" t="n">
-        <v>22.95999999999998</v>
-      </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K297" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="L297" t="inlineStr">
+      <c r="G298" t="n">
+        <v>23.74333333333333</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L298" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="C298" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="D298" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="E298" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="F298" t="n">
-        <v>20059.5833</v>
-      </c>
-      <c r="G298" t="n">
-        <v>22.90499999999998</v>
-      </c>
-      <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K298" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -10864,22 +10838,22 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>22.8</v>
+        <v>22.4</v>
       </c>
       <c r="C299" t="n">
-        <v>22.8</v>
+        <v>22.4</v>
       </c>
       <c r="D299" t="n">
-        <v>22.8</v>
+        <v>22.4</v>
       </c>
       <c r="E299" t="n">
-        <v>22.8</v>
+        <v>22.4</v>
       </c>
       <c r="F299" t="n">
-        <v>2000</v>
+        <v>20059.5833</v>
       </c>
       <c r="G299" t="n">
-        <v>22.87499999999998</v>
+        <v>23.69666666666666</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -10889,7 +10863,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -10905,22 +10879,22 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="C300" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="D300" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="E300" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="F300" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="G300" t="n">
-        <v>22.83499999999998</v>
+        <v>23.66499999999999</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -10930,7 +10904,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -10946,32 +10920,34 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C301" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D301" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E301" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F301" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G301" t="n">
+        <v>23.62333333333332</v>
+      </c>
+      <c r="H301" t="n">
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
         <v>22.8</v>
       </c>
-      <c r="C301" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D301" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E301" t="n">
+      <c r="K301" t="n">
         <v>22.7</v>
-      </c>
-      <c r="F301" t="n">
-        <v>107857.4549</v>
-      </c>
-      <c r="G301" t="n">
-        <v>22.81999999999998</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>22.4</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -10996,23 +10972,25 @@
         <v>22.8</v>
       </c>
       <c r="E302" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="F302" t="n">
-        <v>61171.5562</v>
+        <v>107857.4549</v>
       </c>
       <c r="G302" t="n">
-        <v>22.77999999999998</v>
+        <v>23.58833333333332</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>22.6</v>
+      </c>
       <c r="K302" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -11028,32 +11006,34 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="C303" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="D303" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="E303" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="F303" t="n">
-        <v>3031</v>
+        <v>61171.5562</v>
       </c>
       <c r="G303" t="n">
-        <v>22.75499999999998</v>
+        <v>23.55499999999999</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>22.8</v>
+      </c>
       <c r="K303" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -11072,29 +11052,31 @@
         <v>22.9</v>
       </c>
       <c r="C304" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="D304" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="E304" t="n">
         <v>22.9</v>
       </c>
       <c r="F304" t="n">
-        <v>20481</v>
+        <v>3031</v>
       </c>
       <c r="G304" t="n">
-        <v>22.73499999999998</v>
+        <v>23.52333333333332</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>22.8</v>
+      </c>
       <c r="K304" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -11113,29 +11095,31 @@
         <v>22.9</v>
       </c>
       <c r="C305" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="D305" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="E305" t="n">
         <v>22.9</v>
       </c>
       <c r="F305" t="n">
-        <v>6432.066</v>
+        <v>20481</v>
       </c>
       <c r="G305" t="n">
-        <v>22.72999999999998</v>
+        <v>23.50499999999999</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>22.9</v>
+      </c>
       <c r="K305" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -11154,29 +11138,31 @@
         <v>22.9</v>
       </c>
       <c r="C306" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="D306" t="n">
         <v>22.9</v>
       </c>
       <c r="E306" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="F306" t="n">
-        <v>38513.4571</v>
+        <v>6432.066</v>
       </c>
       <c r="G306" t="n">
-        <v>22.72499999999997</v>
+        <v>23.47833333333333</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>23.2</v>
+      </c>
       <c r="K306" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -11192,32 +11178,34 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="C307" t="n">
-        <v>23.3</v>
+        <v>22.8</v>
       </c>
       <c r="D307" t="n">
-        <v>23.3</v>
+        <v>22.9</v>
       </c>
       <c r="E307" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="F307" t="n">
-        <v>70393.746</v>
+        <v>38513.4571</v>
       </c>
       <c r="G307" t="n">
-        <v>22.72999999999998</v>
+        <v>23.44999999999999</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>22.9</v>
+      </c>
       <c r="K307" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -11233,22 +11221,22 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="C308" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="D308" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="E308" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="F308" t="n">
-        <v>20041.25</v>
+        <v>70393.746</v>
       </c>
       <c r="G308" t="n">
-        <v>22.74999999999998</v>
+        <v>23.43666666666666</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11258,7 +11246,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -11274,22 +11262,22 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="C309" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="D309" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="E309" t="n">
         <v>23.2</v>
       </c>
       <c r="F309" t="n">
-        <v>1881.8224</v>
+        <v>20041.25</v>
       </c>
       <c r="G309" t="n">
-        <v>22.77499999999997</v>
+        <v>23.42166666666666</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11299,7 +11287,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -11315,22 +11303,22 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="C310" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="D310" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="E310" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="F310" t="n">
-        <v>30205.3484</v>
+        <v>1881.8224</v>
       </c>
       <c r="G310" t="n">
-        <v>22.77999999999998</v>
+        <v>23.40333333333333</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11340,7 +11328,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -11356,22 +11344,22 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="C311" t="n">
-        <v>23.8</v>
+        <v>23</v>
       </c>
       <c r="D311" t="n">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="E311" t="n">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="F311" t="n">
-        <v>10000</v>
+        <v>30205.3484</v>
       </c>
       <c r="G311" t="n">
-        <v>22.82499999999997</v>
+        <v>23.38333333333333</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11381,7 +11369,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -11397,22 +11385,22 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="C312" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="D312" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="E312" t="n">
         <v>23.7</v>
       </c>
-      <c r="D312" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="E312" t="n">
-        <v>23.6</v>
-      </c>
       <c r="F312" t="n">
-        <v>27611</v>
+        <v>10000</v>
       </c>
       <c r="G312" t="n">
-        <v>22.87999999999997</v>
+        <v>23.37666666666666</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11422,7 +11410,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -11438,22 +11426,22 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C313" t="n">
         <v>23.7</v>
       </c>
-      <c r="C313" t="n">
-        <v>23.8</v>
-      </c>
       <c r="D313" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="E313" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="F313" t="n">
-        <v>108161</v>
+        <v>27611</v>
       </c>
       <c r="G313" t="n">
-        <v>22.94499999999998</v>
+        <v>23.36833333333333</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11463,7 +11451,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -11479,7 +11467,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="C314" t="n">
         <v>23.8</v>
@@ -11488,13 +11476,13 @@
         <v>23.8</v>
       </c>
       <c r="E314" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="F314" t="n">
-        <v>11000</v>
+        <v>108161</v>
       </c>
       <c r="G314" t="n">
-        <v>23.00999999999998</v>
+        <v>23.36499999999999</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11504,7 +11492,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -11523,19 +11511,19 @@
         <v>23.8</v>
       </c>
       <c r="C315" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="D315" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="E315" t="n">
         <v>23.8</v>
       </c>
       <c r="F315" t="n">
-        <v>38141.9881</v>
+        <v>11000</v>
       </c>
       <c r="G315" t="n">
-        <v>23.06499999999998</v>
+        <v>23.36166666666666</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -11545,7 +11533,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -11561,22 +11549,22 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C316" t="n">
         <v>23.9</v>
       </c>
-      <c r="C316" t="n">
-        <v>24</v>
-      </c>
       <c r="D316" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="E316" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="F316" t="n">
-        <v>26734.0269</v>
+        <v>38141.9881</v>
       </c>
       <c r="G316" t="n">
-        <v>23.12999999999997</v>
+        <v>23.36833333333333</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11586,7 +11574,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -11602,22 +11590,22 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="C317" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="D317" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="E317" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="F317" t="n">
-        <v>8000</v>
+        <v>26734.0269</v>
       </c>
       <c r="G317" t="n">
-        <v>23.17999999999997</v>
+        <v>23.37666666666666</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -11627,7 +11615,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -11643,22 +11631,22 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="C318" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="D318" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="E318" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="F318" t="n">
-        <v>22951.284</v>
+        <v>8000</v>
       </c>
       <c r="G318" t="n">
-        <v>23.22999999999998</v>
+        <v>23.37333333333333</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -11668,7 +11656,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -11684,22 +11672,22 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>22.9</v>
+        <v>23.4</v>
       </c>
       <c r="C319" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D319" t="n">
         <v>23.4</v>
       </c>
-      <c r="D319" t="n">
-        <v>23.9</v>
-      </c>
       <c r="E319" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="F319" t="n">
-        <v>10743.0089</v>
+        <v>22951.284</v>
       </c>
       <c r="G319" t="n">
-        <v>23.23499999999997</v>
+        <v>23.36499999999999</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -11709,7 +11697,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -11725,22 +11713,22 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="C320" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="D320" t="n">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="E320" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="F320" t="n">
-        <v>4000</v>
+        <v>10743.0089</v>
       </c>
       <c r="G320" t="n">
-        <v>23.26999999999997</v>
+        <v>23.35666666666666</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -11750,7 +11738,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -11766,22 +11754,22 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="C321" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="D321" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="E321" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="F321" t="n">
-        <v>47840.4077</v>
+        <v>4000</v>
       </c>
       <c r="G321" t="n">
-        <v>23.27999999999997</v>
+        <v>23.34333333333333</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -11791,7 +11779,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -11807,22 +11795,22 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
+        <v>23</v>
+      </c>
+      <c r="C322" t="n">
         <v>23.1</v>
       </c>
-      <c r="C322" t="n">
-        <v>23.8</v>
-      </c>
       <c r="D322" t="n">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="E322" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="F322" t="n">
-        <v>10000</v>
+        <v>47840.4077</v>
       </c>
       <c r="G322" t="n">
-        <v>23.29499999999997</v>
+        <v>23.32833333333333</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -11832,7 +11820,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -11848,22 +11836,22 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="C323" t="n">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="D323" t="n">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="E323" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="F323" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G323" t="n">
-        <v>23.30999999999997</v>
+        <v>23.32166666666666</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -11873,7 +11861,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -11904,7 +11892,7 @@
         <v>10</v>
       </c>
       <c r="G324" t="n">
-        <v>23.32499999999997</v>
+        <v>23.30666666666666</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -11914,7 +11902,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -11942,10 +11930,10 @@
         <v>23.2</v>
       </c>
       <c r="F325" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G325" t="n">
-        <v>23.33999999999997</v>
+        <v>23.29166666666666</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -11955,7 +11943,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -11983,10 +11971,10 @@
         <v>23.2</v>
       </c>
       <c r="F326" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G326" t="n">
-        <v>23.35499999999998</v>
+        <v>23.27666666666666</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -11996,7 +11984,7 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -12024,10 +12012,10 @@
         <v>23.2</v>
       </c>
       <c r="F327" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G327" t="n">
-        <v>23.35999999999997</v>
+        <v>23.26</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -12037,7 +12025,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -12056,19 +12044,19 @@
         <v>23.2</v>
       </c>
       <c r="C328" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="D328" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="E328" t="n">
         <v>23.2</v>
       </c>
       <c r="F328" t="n">
-        <v>3510</v>
+        <v>20</v>
       </c>
       <c r="G328" t="n">
-        <v>23.34999999999997</v>
+        <v>23.24666666666667</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -12078,7 +12066,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -12094,10 +12082,10 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C329" t="n">
         <v>23.3</v>
-      </c>
-      <c r="C329" t="n">
-        <v>23.2</v>
       </c>
       <c r="D329" t="n">
         <v>23.3</v>
@@ -12106,10 +12094,10 @@
         <v>23.2</v>
       </c>
       <c r="F329" t="n">
-        <v>1700</v>
+        <v>3510</v>
       </c>
       <c r="G329" t="n">
-        <v>23.35499999999998</v>
+        <v>23.235</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -12119,7 +12107,7 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -12135,22 +12123,22 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C330" t="n">
         <v>23.2</v>
       </c>
-      <c r="C330" t="n">
-        <v>24</v>
-      </c>
       <c r="D330" t="n">
-        <v>24</v>
+        <v>23.3</v>
       </c>
       <c r="E330" t="n">
         <v>23.2</v>
       </c>
       <c r="F330" t="n">
-        <v>8100</v>
+        <v>1700</v>
       </c>
       <c r="G330" t="n">
-        <v>23.36499999999997</v>
+        <v>23.225</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -12160,7 +12148,7 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -12176,22 +12164,22 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="C331" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="D331" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="E331" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="F331" t="n">
-        <v>12000</v>
+        <v>8100</v>
       </c>
       <c r="G331" t="n">
-        <v>23.36999999999998</v>
+        <v>23.22666666666667</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -12201,7 +12189,7 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -12217,22 +12205,22 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="C332" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="D332" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="E332" t="n">
-        <v>23.3</v>
+        <v>23.8</v>
       </c>
       <c r="F332" t="n">
-        <v>92757</v>
+        <v>12000</v>
       </c>
       <c r="G332" t="n">
-        <v>23.35999999999997</v>
+        <v>23.22666666666667</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -12242,7 +12230,7 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -12258,22 +12246,22 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="C333" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="D333" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="E333" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="F333" t="n">
-        <v>1953.8999</v>
+        <v>92757</v>
       </c>
       <c r="G333" t="n">
-        <v>23.36499999999997</v>
+        <v>23.22833333333333</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -12283,7 +12271,7 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -12311,10 +12299,10 @@
         <v>23.8</v>
       </c>
       <c r="F334" t="n">
-        <v>42969.2847</v>
+        <v>1953.8999</v>
       </c>
       <c r="G334" t="n">
-        <v>23.36499999999997</v>
+        <v>23.22666666666666</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -12324,7 +12312,7 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -12352,10 +12340,10 @@
         <v>23.8</v>
       </c>
       <c r="F335" t="n">
-        <v>3727.0045</v>
+        <v>42969.2847</v>
       </c>
       <c r="G335" t="n">
-        <v>23.36499999999997</v>
+        <v>23.22499999999999</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -12365,7 +12353,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -12384,19 +12372,19 @@
         <v>23.8</v>
       </c>
       <c r="C336" t="n">
-        <v>23.3</v>
+        <v>23.8</v>
       </c>
       <c r="D336" t="n">
         <v>23.8</v>
       </c>
       <c r="E336" t="n">
-        <v>23.3</v>
+        <v>23.8</v>
       </c>
       <c r="F336" t="n">
-        <v>91370.9532</v>
+        <v>3727.0045</v>
       </c>
       <c r="G336" t="n">
-        <v>23.35999999999998</v>
+        <v>23.22833333333333</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -12406,7 +12394,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -12422,22 +12410,22 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="C337" t="n">
         <v>23.3</v>
       </c>
-      <c r="C337" t="n">
-        <v>23.6</v>
-      </c>
       <c r="D337" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="E337" t="n">
         <v>23.3</v>
       </c>
       <c r="F337" t="n">
-        <v>23762</v>
+        <v>91370.9532</v>
       </c>
       <c r="G337" t="n">
-        <v>23.34999999999998</v>
+        <v>23.22166666666666</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -12447,7 +12435,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -12463,22 +12451,22 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C338" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="D338" t="n">
         <v>23.9</v>
       </c>
-      <c r="C338" t="n">
-        <v>24</v>
-      </c>
-      <c r="D338" t="n">
-        <v>24</v>
-      </c>
       <c r="E338" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="F338" t="n">
-        <v>8364.583333333334</v>
+        <v>23762</v>
       </c>
       <c r="G338" t="n">
-        <v>23.37499999999998</v>
+        <v>23.22833333333332</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -12488,7 +12476,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -12507,19 +12495,19 @@
         <v>23.9</v>
       </c>
       <c r="C339" t="n">
-        <v>23.2</v>
+        <v>24</v>
       </c>
       <c r="D339" t="n">
+        <v>24</v>
+      </c>
+      <c r="E339" t="n">
         <v>23.9</v>
       </c>
-      <c r="E339" t="n">
-        <v>23.2</v>
-      </c>
       <c r="F339" t="n">
-        <v>12458.81</v>
+        <v>8364.583333333334</v>
       </c>
       <c r="G339" t="n">
-        <v>23.42499999999998</v>
+        <v>23.23166666666666</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -12529,7 +12517,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -12545,22 +12533,22 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="C340" t="n">
         <v>23.2</v>
       </c>
       <c r="D340" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="E340" t="n">
         <v>23.2</v>
       </c>
       <c r="F340" t="n">
-        <v>15771.5211</v>
+        <v>12458.81</v>
       </c>
       <c r="G340" t="n">
-        <v>23.44999999999998</v>
+        <v>23.22166666666666</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -12570,7 +12558,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -12586,22 +12574,22 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="C341" t="n">
-        <v>23.7</v>
+        <v>23.2</v>
       </c>
       <c r="D341" t="n">
         <v>23.7</v>
       </c>
       <c r="E341" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="F341" t="n">
-        <v>5636.867</v>
+        <v>15771.5211</v>
       </c>
       <c r="G341" t="n">
-        <v>23.47999999999998</v>
+        <v>23.21166666666666</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -12611,7 +12599,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -12630,19 +12618,19 @@
         <v>23.6</v>
       </c>
       <c r="C342" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="D342" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="E342" t="n">
         <v>23.6</v>
       </c>
-      <c r="E342" t="n">
-        <v>23.3</v>
-      </c>
       <c r="F342" t="n">
-        <v>5297.235</v>
+        <v>5636.867</v>
       </c>
       <c r="G342" t="n">
-        <v>23.50499999999998</v>
+        <v>23.23166666666666</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -12652,7 +12640,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -12668,22 +12656,22 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="C343" t="n">
         <v>23.3</v>
       </c>
       <c r="D343" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="E343" t="n">
         <v>23.3</v>
       </c>
       <c r="F343" t="n">
-        <v>16958.7817</v>
+        <v>5297.235</v>
       </c>
       <c r="G343" t="n">
-        <v>23.51499999999998</v>
+        <v>23.22999999999999</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -12693,7 +12681,7 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -12709,22 +12697,22 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="C344" t="n">
         <v>23.3</v>
       </c>
       <c r="D344" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="E344" t="n">
         <v>23.3</v>
       </c>
       <c r="F344" t="n">
-        <v>2000</v>
+        <v>16958.7817</v>
       </c>
       <c r="G344" t="n">
-        <v>23.51999999999998</v>
+        <v>23.22666666666666</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -12734,7 +12722,7 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -12762,10 +12750,10 @@
         <v>23.3</v>
       </c>
       <c r="F345" t="n">
-        <v>6453.4763</v>
+        <v>2000</v>
       </c>
       <c r="G345" t="n">
-        <v>23.52499999999998</v>
+        <v>23.22666666666666</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -12775,7 +12763,7 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -12791,22 +12779,22 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="C346" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="D346" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="E346" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="F346" t="n">
-        <v>1606.485</v>
+        <v>6453.4763</v>
       </c>
       <c r="G346" t="n">
-        <v>23.53499999999998</v>
+        <v>23.23166666666666</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -12816,7 +12804,7 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -12832,22 +12820,22 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="C347" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="D347" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="E347" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="F347" t="n">
-        <v>477.8601</v>
+        <v>1606.485</v>
       </c>
       <c r="G347" t="n">
-        <v>23.55499999999998</v>
+        <v>23.23833333333333</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -12857,7 +12845,7 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -12876,19 +12864,19 @@
         <v>23.6</v>
       </c>
       <c r="C348" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="D348" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="E348" t="n">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="F348" t="n">
-        <v>45208.0752</v>
+        <v>477.8601</v>
       </c>
       <c r="G348" t="n">
-        <v>23.57499999999998</v>
+        <v>23.24833333333332</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -12898,7 +12886,7 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -12914,22 +12902,22 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="C349" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="D349" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="E349" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="F349" t="n">
-        <v>14882.4985</v>
+        <v>45208.0752</v>
       </c>
       <c r="G349" t="n">
-        <v>23.58499999999998</v>
+        <v>23.25499999999999</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -12939,7 +12927,7 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -12955,22 +12943,22 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="C350" t="n">
         <v>23.4</v>
       </c>
       <c r="D350" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="E350" t="n">
         <v>23.4</v>
       </c>
       <c r="F350" t="n">
-        <v>975.9401</v>
+        <v>14882.4985</v>
       </c>
       <c r="G350" t="n">
-        <v>23.59499999999998</v>
+        <v>23.26499999999999</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -12980,7 +12968,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>
@@ -12991,6 +12979,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C351" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="D351" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="E351" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="F351" t="n">
+        <v>975.9401</v>
+      </c>
+      <c r="G351" t="n">
+        <v>23.275</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0</v>
+      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M351" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-31 BackTest OGO.xlsx
+++ b/BackTest/2019-10-31 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1144,10 +1144,14 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>24</v>
+      </c>
+      <c r="J23" t="n">
+        <v>24</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1177,11 +1181,19 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>24</v>
+      </c>
+      <c r="J24" t="n">
+        <v>24</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1222,19 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>24</v>
+      </c>
+      <c r="J25" t="n">
+        <v>24</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,10 +1263,14 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>24</v>
+      </c>
+      <c r="J26" t="n">
+        <v>24</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
@@ -1276,11 +1300,19 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>24</v>
+      </c>
+      <c r="J27" t="n">
+        <v>24</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1341,19 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>24</v>
+      </c>
+      <c r="J28" t="n">
+        <v>24</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,10 +1382,14 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>24</v>
+      </c>
+      <c r="J29" t="n">
+        <v>24</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1378,8 +1422,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>24</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1461,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>24</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1530,17 @@
         <v>298151.615807843</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>24</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1569,17 @@
         <v>384747.9925078431</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>23.7</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1612,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1645,17 @@
         <v>384747.9925078431</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>24</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1688,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1725,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1762,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1799,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1836,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1873,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1910,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +1947,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +1984,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2021,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2058,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2095,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2132,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2169,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2206,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2243,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2280,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2317,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2354,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2391,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2428,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2465,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2502,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2539,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2576,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2613,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2650,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2687,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2724,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2761,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2798,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2835,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2872,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2909,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +2946,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +2983,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3020,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3057,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3094,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3131,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3168,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3205,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3242,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3279,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3316,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3353,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3390,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3427,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3460,17 @@
         <v>426327.6787078431</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3503,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3536,17 @@
         <v>437625.0951078431</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>23.9</v>
+      </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3575,17 @@
         <v>437625.0951078431</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>24</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3614,17 @@
         <v>437625.0951078431</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>24</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3653,17 @@
         <v>383484.459907843</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>24</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3692,17 @@
         <v>454713.459907843</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>23.6</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3731,17 @@
         <v>436570.142107843</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>24.3</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3770,17 @@
         <v>440627.142107843</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>23.7</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3813,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3850,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3887,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3924,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +3961,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +3998,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4035,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4072,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4109,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4146,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4183,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4220,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4257,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4294,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4331,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4368,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4405,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4442,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4479,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4516,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4553,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4590,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4627,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4664,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4701,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4738,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4775,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4812,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4849,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4886,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4923,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +4960,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +4997,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +5034,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +5071,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +5108,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +5145,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +5182,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +5219,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +5256,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5293,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5330,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5367,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5404,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5441,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5478,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5515,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5552,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5589,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5626,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5663,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5700,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5737,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5774,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5811,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5848,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5885,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5922,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +5959,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5992,15 @@
         <v>1437980.669633845</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +6029,15 @@
         <v>1486220.274333845</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +6066,15 @@
         <v>1810827.619033845</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +6103,15 @@
         <v>1733545.560633845</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +6140,15 @@
         <v>1802063.774833845</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +6177,15 @@
         <v>2124730.292333845</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +6214,15 @@
         <v>1839395.941531622</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +6251,15 @@
         <v>1958944.876631622</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +6288,15 @@
         <v>1693077.127739029</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +6325,15 @@
         <v>1651212.653139029</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +6366,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +6403,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5834,7 +6440,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5867,7 +6477,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,14 +6510,16 @@
         <v>1622504.057139029</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
@@ -5929,7 +6545,7 @@
         <v>1622504.057139029</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +6578,7 @@
         <v>1713436.95963903</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +6611,7 @@
         <v>1735013.75023903</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6644,7 @@
         <v>1700510.12163903</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6677,7 @@
         <v>1659588.07483903</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6710,7 @@
         <v>1670700.98843903</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6743,7 @@
         <v>1625662.69153903</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6776,7 @@
         <v>1625662.69153903</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6809,7 @@
         <v>1563959.74293903</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6842,7 @@
         <v>1591716.32183903</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6875,7 @@
         <v>1567879.12623903</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6908,7 @@
         <v>1395073.85863903</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6941,7 @@
         <v>1395073.85863903</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6974,7 @@
         <v>1395073.85863903</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +7007,7 @@
         <v>1465233.02043903</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +7040,7 @@
         <v>1438173.00603903</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +7073,7 @@
         <v>1438173.00603903</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +7106,7 @@
         <v>1438173.00603903</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6655,7 +7271,7 @@
         <v>1417848.38593903</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +7304,7 @@
         <v>1417848.38593903</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +7337,7 @@
         <v>1420848.38593903</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +7370,7 @@
         <v>1502208.85643903</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +7403,7 @@
         <v>1433450.69003903</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +7436,7 @@
         <v>1440450.69003903</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +7469,7 @@
         <v>1416734.69003903</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +7502,7 @@
         <v>1429864.69003903</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +7535,7 @@
         <v>1466938.21943903</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +7568,7 @@
         <v>1449938.21943903</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +7601,7 @@
         <v>1449938.21943903</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7634,7 @@
         <v>1466323.51123903</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7667,7 @@
         <v>1466323.51123903</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7700,7 @@
         <v>1466323.51123903</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7733,7 @@
         <v>1466323.51123903</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7766,7 @@
         <v>1466323.51123903</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7799,7 @@
         <v>1466323.51123903</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7832,7 @@
         <v>1466323.51123903</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7865,7 @@
         <v>1459005.27663903</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7898,7 @@
         <v>1457005.27663903</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7931,7 @@
         <v>1457005.27663903</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7964,7 @@
         <v>1459005.27663903</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7997,7 @@
         <v>1410456.69663903</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +8030,7 @@
         <v>1499350.95663903</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +8063,7 @@
         <v>1268420.47713903</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +8096,7 @@
         <v>1268420.47713903</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +8129,7 @@
         <v>1270320.47713903</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +8162,7 @@
         <v>1270120.77713903</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +8195,7 @@
         <v>1270120.77713903</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +8228,7 @@
         <v>1270120.77713903</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +8261,7 @@
         <v>1255298.85063903</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +8294,7 @@
         <v>1255298.85063903</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +8327,7 @@
         <v>1255298.85063903</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8041,7 +8657,7 @@
         <v>1182830.34803903</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8690,7 @@
         <v>1237359.66893903</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8723,7 @@
         <v>1237359.66893903</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8756,7 @@
         <v>1292851.42713903</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8789,7 @@
         <v>1291540.41713903</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8822,7 @@
         <v>1303496.80593903</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8305,7 +8921,7 @@
         <v>1359767.83193903</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8954,7 @@
         <v>1293763.70173903</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8987,7 @@
         <v>1271808.15503903</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +9020,7 @@
         <v>1271808.15503903</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +9053,7 @@
         <v>1432176.16023903</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -12067,10 +12683,14 @@
         <v>975533.784372835</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="J354" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
@@ -12103,8 +12723,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12133,11 +12759,19 @@
         <v>916901.240772835</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="J356" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12166,11 +12800,19 @@
         <v>916901.240772835</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J357" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12199,11 +12841,19 @@
         <v>918901.240772835</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="J358" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12232,15 +12882,17 @@
         <v>914901.240772835</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>22.8</v>
       </c>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L359" t="n">
@@ -12271,12 +12923,14 @@
         <v>1022758.695672835</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>22.6</v>
       </c>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12310,12 +12964,14 @@
         <v>1022758.695672835</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>22.8</v>
       </c>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12349,12 +13005,14 @@
         <v>1025789.695672835</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>22.8</v>
       </c>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12388,12 +13046,14 @@
         <v>1046270.695672835</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>22.9</v>
       </c>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12427,12 +13087,14 @@
         <v>1039838.629672835</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>23.2</v>
       </c>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12466,12 +13128,14 @@
         <v>1001325.172572835</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>22.9</v>
       </c>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12505,10 +13169,14 @@
         <v>1071718.918572835</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="J366" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12542,12 +13210,14 @@
         <v>1091760.168572835</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>23.3</v>
       </c>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12581,10 +13251,14 @@
         <v>1089878.346172835</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J368" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12618,10 +13292,14 @@
         <v>1059672.997772835</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="J369" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12658,7 +13336,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12695,7 +13375,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12732,7 +13414,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12769,7 +13453,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12806,7 +13492,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12843,7 +13531,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12880,7 +13570,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12917,7 +13609,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12954,7 +13648,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12991,7 +13687,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13028,7 +13726,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13065,7 +13765,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13102,7 +13804,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13139,7 +13843,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13176,7 +13882,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13213,7 +13921,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13250,7 +13960,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13287,7 +13999,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13324,7 +14038,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13361,7 +14077,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13398,7 +14116,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13435,7 +14155,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13472,7 +14194,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13509,7 +14233,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13546,7 +14272,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13583,7 +14311,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13620,7 +14350,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13657,7 +14389,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13694,7 +14428,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13731,7 +14467,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13765,12 +14503,12 @@
         <v>1175687.117206168</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
-      </c>
-      <c r="I400" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="J400" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13804,12 +14542,12 @@
         <v>1170389.882206168</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
-      </c>
-      <c r="I401" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="J401" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13843,12 +14581,12 @@
         <v>1170389.882206168</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
-      </c>
-      <c r="I402" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="J402" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13882,12 +14620,12 @@
         <v>1170389.882206168</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
-      </c>
-      <c r="I403" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="J403" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13924,7 +14662,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13958,12 +14698,14 @@
         <v>1171996.367206168</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>23.3</v>
       </c>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14000,7 +14742,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14034,12 +14778,12 @@
         <v>1127266.152106168</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
-      </c>
-      <c r="I407" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="J407" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14076,7 +14820,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14113,7 +14859,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14150,7 +14898,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14187,7 +14937,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14224,7 +14976,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14261,7 +15015,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14298,7 +15054,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14335,7 +15093,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14372,7 +15132,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14409,7 +15171,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14446,7 +15210,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14483,7 +15249,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>22.5</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14495,6 +15263,6 @@
       <c r="M419" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest OGO.xlsx
+++ b/BackTest/2019-10-31 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>301742.6524078431</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>303578.6224078431</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>277332.6224078431</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>307507.6224078431</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>302636.798407843</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1144,14 +1144,10 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>24</v>
-      </c>
-      <c r="J23" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1181,19 +1177,11 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>24</v>
-      </c>
-      <c r="J24" t="n">
-        <v>24</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1222,19 +1210,11 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>24</v>
-      </c>
-      <c r="J25" t="n">
-        <v>24</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1263,14 +1243,10 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>24</v>
-      </c>
-      <c r="J26" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
@@ -1300,19 +1276,11 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>24</v>
-      </c>
-      <c r="J27" t="n">
-        <v>24</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1341,19 +1309,11 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>24</v>
-      </c>
-      <c r="J28" t="n">
-        <v>24</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1382,14 +1342,10 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>24</v>
-      </c>
-      <c r="J29" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1422,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>24</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1461,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>24</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1684,9 +1628,11 @@
         <v>384747.9925078431</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>24</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1721,9 +1667,11 @@
         <v>384747.9925078431</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>24</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -3460,11 +3408,9 @@
         <v>426327.6787078431</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3536,11 +3482,9 @@
         <v>437625.0951078431</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>23.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3575,11 +3519,9 @@
         <v>437625.0951078431</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3614,11 +3556,9 @@
         <v>437625.0951078431</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3653,11 +3593,9 @@
         <v>383484.459907843</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3692,11 +3630,9 @@
         <v>454713.459907843</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>23.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3731,11 +3667,9 @@
         <v>436570.142107843</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>24.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
@@ -3770,11 +3704,9 @@
         <v>440627.142107843</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>23.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -5770,18 +5702,16 @@
         <v>1043939.395233845</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
@@ -5807,15 +5737,11 @@
         <v>1043939.395233845</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5844,15 +5770,11 @@
         <v>1131736.122633845</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5881,15 +5803,11 @@
         <v>1191694.462533845</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5918,15 +5836,11 @@
         <v>1480751.145033845</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5955,15 +5869,11 @@
         <v>1701795.555733845</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5992,15 +5902,11 @@
         <v>1437980.669633845</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6029,15 +5935,11 @@
         <v>1486220.274333845</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6066,15 +5968,11 @@
         <v>1810827.619033845</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6107,11 +6005,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6144,11 +6038,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6181,11 +6071,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6218,11 +6104,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6255,11 +6137,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6170,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6329,11 +6203,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6366,11 +6236,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6403,11 +6269,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6440,11 +6302,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6477,11 +6335,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6510,16 +6364,14 @@
         <v>1622504.057139029</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
       <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
@@ -6545,7 +6397,7 @@
         <v>1622504.057139029</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6578,7 +6430,7 @@
         <v>1713436.95963903</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6611,7 +6463,7 @@
         <v>1735013.75023903</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6644,7 +6496,7 @@
         <v>1700510.12163903</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6677,7 +6529,7 @@
         <v>1659588.07483903</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6710,7 +6562,7 @@
         <v>1670700.98843903</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6743,7 +6595,7 @@
         <v>1625662.69153903</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6776,7 +6628,7 @@
         <v>1625662.69153903</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6809,7 +6661,7 @@
         <v>1563959.74293903</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6842,7 +6694,7 @@
         <v>1591716.32183903</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6875,7 +6727,7 @@
         <v>1567879.12623903</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6908,7 +6760,7 @@
         <v>1395073.85863903</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6941,7 +6793,7 @@
         <v>1395073.85863903</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7106,7 +6958,7 @@
         <v>1438173.00603903</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7139,7 +6991,7 @@
         <v>1472671.26043903</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7172,7 +7024,7 @@
         <v>1431436.34213903</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7271,7 +7123,7 @@
         <v>1417848.38593903</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7304,7 +7156,7 @@
         <v>1417848.38593903</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7337,7 +7189,7 @@
         <v>1420848.38593903</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7370,7 +7222,7 @@
         <v>1502208.85643903</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7403,7 +7255,7 @@
         <v>1433450.69003903</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7436,7 +7288,7 @@
         <v>1440450.69003903</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7469,7 +7321,7 @@
         <v>1416734.69003903</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7502,7 +7354,7 @@
         <v>1429864.69003903</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7535,7 +7387,7 @@
         <v>1466938.21943903</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7568,7 +7420,7 @@
         <v>1449938.21943903</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7601,7 +7453,7 @@
         <v>1449938.21943903</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7634,7 +7486,7 @@
         <v>1466323.51123903</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7667,7 +7519,7 @@
         <v>1466323.51123903</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7700,7 +7552,7 @@
         <v>1466323.51123903</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7733,7 +7585,7 @@
         <v>1466323.51123903</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7766,7 +7618,7 @@
         <v>1466323.51123903</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7799,7 +7651,7 @@
         <v>1466323.51123903</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7832,7 +7684,7 @@
         <v>1466323.51123903</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7865,7 +7717,7 @@
         <v>1459005.27663903</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7898,7 +7750,7 @@
         <v>1457005.27663903</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7931,7 +7783,7 @@
         <v>1457005.27663903</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7964,7 +7816,7 @@
         <v>1459005.27663903</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7997,7 +7849,7 @@
         <v>1410456.69663903</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8030,7 +7882,7 @@
         <v>1499350.95663903</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8063,7 +7915,7 @@
         <v>1268420.47713903</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8096,7 +7948,7 @@
         <v>1268420.47713903</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8129,7 +7981,7 @@
         <v>1270320.47713903</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8162,7 +8014,7 @@
         <v>1270120.77713903</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8195,7 +8047,7 @@
         <v>1270120.77713903</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8228,7 +8080,7 @@
         <v>1270120.77713903</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8261,7 +8113,7 @@
         <v>1255298.85063903</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8294,7 +8146,7 @@
         <v>1255298.85063903</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8327,7 +8179,7 @@
         <v>1255298.85063903</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8657,7 +8509,7 @@
         <v>1182830.34803903</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8690,7 +8542,7 @@
         <v>1237359.66893903</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8723,7 +8575,7 @@
         <v>1237359.66893903</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8756,7 +8608,7 @@
         <v>1292851.42713903</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8789,7 +8641,7 @@
         <v>1291540.41713903</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8822,7 +8674,7 @@
         <v>1303496.80593903</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8921,7 +8773,7 @@
         <v>1359767.83193903</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8954,7 +8806,7 @@
         <v>1293763.70173903</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8987,7 +8839,7 @@
         <v>1271808.15503903</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9020,7 +8872,7 @@
         <v>1271808.15503903</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9053,7 +8905,7 @@
         <v>1432176.16023903</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -11066,7 +10918,7 @@
         <v>1068494.702572835</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11099,7 +10951,7 @@
         <v>1057592.292772835</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12683,14 +12535,10 @@
         <v>975533.784372835</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J354" t="n">
-        <v>22.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
@@ -12723,14 +12571,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12759,19 +12601,11 @@
         <v>916901.240772835</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="J356" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12800,19 +12634,11 @@
         <v>916901.240772835</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="J357" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12841,19 +12667,11 @@
         <v>918901.240772835</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="J358" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12882,19 +12700,11 @@
         <v>914901.240772835</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J359" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12923,19 +12733,11 @@
         <v>1022758.695672835</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="J360" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12964,19 +12766,11 @@
         <v>1022758.695672835</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J361" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13005,19 +12799,11 @@
         <v>1025789.695672835</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J362" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13046,19 +12832,11 @@
         <v>1046270.695672835</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="J363" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13087,19 +12865,11 @@
         <v>1039838.629672835</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="J364" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13128,19 +12898,11 @@
         <v>1001325.172572835</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="J365" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13169,19 +12931,11 @@
         <v>1071718.918572835</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J366" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13210,19 +12964,11 @@
         <v>1091760.168572835</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="J367" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13251,19 +12997,11 @@
         <v>1089878.346172835</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="J368" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13292,19 +13030,11 @@
         <v>1059672.997772835</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="J369" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13336,14 +13066,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13375,14 +13099,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13414,14 +13132,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13453,14 +13165,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13492,14 +13198,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13531,14 +13231,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13570,14 +13264,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13609,14 +13297,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13648,14 +13330,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13687,14 +13363,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13726,14 +13396,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13765,14 +13429,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13804,14 +13462,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13843,14 +13495,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13882,14 +13528,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13921,14 +13561,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13960,14 +13594,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13999,14 +13627,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14038,14 +13660,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14077,14 +13693,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14116,14 +13726,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14155,14 +13759,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14194,14 +13792,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14233,14 +13825,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14272,14 +13858,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14311,14 +13891,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14350,14 +13924,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14389,14 +13957,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14428,14 +13990,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14467,14 +14023,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14506,14 +14056,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14545,14 +14089,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14584,14 +14122,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14623,14 +14155,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14662,14 +14188,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14698,19 +14218,11 @@
         <v>1171996.367206168</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="J405" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14742,14 +14254,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14781,14 +14287,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14820,14 +14320,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14859,14 +14353,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14898,14 +14386,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14937,14 +14419,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14976,14 +14452,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15015,14 +14485,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15054,14 +14518,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15093,14 +14551,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15132,14 +14584,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15171,14 +14617,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15210,14 +14650,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15249,20 +14683,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
       <c r="M419" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest OGO.xlsx
+++ b/BackTest/2019-10-31 BackTest OGO.xlsx
@@ -451,7 +451,7 @@
         <v>301742.6524078431</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>303578.6224078431</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>277332.6224078431</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>307507.6224078431</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>302636.798407843</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,10 +682,14 @@
         <v>306636.798407843</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>23.7</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -718,8 +722,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +761,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -1045,10 +1061,14 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>24</v>
+      </c>
+      <c r="J20" t="n">
+        <v>24</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
@@ -1081,8 +1101,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>24</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1140,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>24</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1177,10 +1209,14 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>24</v>
+      </c>
+      <c r="J24" t="n">
+        <v>24</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1210,11 +1246,19 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>24</v>
+      </c>
+      <c r="J25" t="n">
+        <v>24</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1287,19 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>24</v>
+      </c>
+      <c r="J26" t="n">
+        <v>24</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,10 +1328,14 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>24</v>
+      </c>
+      <c r="J27" t="n">
+        <v>24</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1309,11 +1365,19 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>24</v>
+      </c>
+      <c r="J28" t="n">
+        <v>24</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1406,19 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>24</v>
+      </c>
+      <c r="J29" t="n">
+        <v>24</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,10 +1447,14 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>24</v>
+      </c>
+      <c r="J30" t="n">
+        <v>24</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
@@ -1408,11 +1484,19 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>24</v>
+      </c>
+      <c r="J31" t="n">
+        <v>24</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1525,19 @@
         <v>307302.2484078431</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>24</v>
+      </c>
+      <c r="J32" t="n">
+        <v>24</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1479,7 +1571,9 @@
       <c r="I33" t="n">
         <v>24</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>24</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -1518,7 +1612,9 @@
       <c r="I34" t="n">
         <v>23.7</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>24</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1552,10 +1648,14 @@
         <v>384747.9925078431</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>24</v>
+      </c>
+      <c r="J35" t="n">
+        <v>24</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1594,7 +1694,9 @@
       <c r="I36" t="n">
         <v>24</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>24</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1633,7 +1735,9 @@
       <c r="I37" t="n">
         <v>24</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>24</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1672,7 +1776,9 @@
       <c r="I38" t="n">
         <v>24</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>24</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1706,10 +1812,14 @@
         <v>384747.9925078431</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>24</v>
+      </c>
+      <c r="J39" t="n">
+        <v>24</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1743,10 +1853,14 @@
         <v>397167.9925078431</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>24</v>
+      </c>
+      <c r="J40" t="n">
+        <v>24</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1780,10 +1894,14 @@
         <v>397167.9925078431</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J41" t="n">
+        <v>24</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1817,10 +1935,14 @@
         <v>397167.9925078431</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>24</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1854,10 +1976,14 @@
         <v>397167.9925078431</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>24</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1891,10 +2017,14 @@
         <v>418736.9925078431</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J44" t="n">
+        <v>24</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1928,10 +2058,14 @@
         <v>418736.9925078431</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J45" t="n">
+        <v>24</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1965,10 +2099,14 @@
         <v>418736.9925078431</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>24</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2002,10 +2140,14 @@
         <v>410158.4925078431</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>24</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2039,10 +2181,14 @@
         <v>416123.4925078431</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>24</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2076,10 +2222,14 @@
         <v>416123.4925078431</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J49" t="n">
+        <v>24</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2113,10 +2263,14 @@
         <v>416123.4925078431</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>24</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2150,10 +2304,14 @@
         <v>415622.4925078431</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J51" t="n">
+        <v>24</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2187,10 +2345,14 @@
         <v>415622.4925078431</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J52" t="n">
+        <v>24</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2224,10 +2386,14 @@
         <v>426822.4925078431</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>24</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2261,10 +2427,14 @@
         <v>380831.2326078431</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J54" t="n">
+        <v>24</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2298,10 +2468,14 @@
         <v>416976.2326078431</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>24</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2335,10 +2509,14 @@
         <v>416976.2326078431</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J56" t="n">
+        <v>24</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2372,10 +2550,14 @@
         <v>416976.2326078431</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J57" t="n">
+        <v>24</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2409,10 +2591,14 @@
         <v>370196.0212078431</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J58" t="n">
+        <v>24</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2446,10 +2632,14 @@
         <v>379532.0212078431</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>24</v>
+      </c>
+      <c r="J59" t="n">
+        <v>24</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2483,10 +2673,14 @@
         <v>342253.0212078431</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J60" t="n">
+        <v>24</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2520,10 +2714,14 @@
         <v>342253.0212078431</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>24</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2557,10 +2755,14 @@
         <v>342253.0212078431</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J62" t="n">
+        <v>24</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2594,10 +2796,14 @@
         <v>361405.0212078431</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>24</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2631,10 +2837,14 @@
         <v>361405.0212078431</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J64" t="n">
+        <v>24</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2668,10 +2878,14 @@
         <v>361405.0212078431</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J65" t="n">
+        <v>24</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2705,10 +2919,14 @@
         <v>361405.0212078431</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J66" t="n">
+        <v>24</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2742,10 +2960,14 @@
         <v>361405.0212078431</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>24</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2779,10 +3001,14 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J68" t="n">
+        <v>24</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2816,10 +3042,14 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J69" t="n">
+        <v>24</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2853,10 +3083,14 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>24</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2890,10 +3124,14 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J71" t="n">
+        <v>24</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2927,10 +3165,14 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J72" t="n">
+        <v>24</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2964,10 +3206,14 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>24</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3001,10 +3247,14 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>24</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3038,10 +3288,14 @@
         <v>397706.7685078431</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J75" t="n">
+        <v>24</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3075,10 +3329,14 @@
         <v>437706.7685078431</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>24</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3112,10 +3370,14 @@
         <v>437706.7685078431</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J77" t="n">
+        <v>24</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3149,10 +3411,14 @@
         <v>437706.7685078431</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J78" t="n">
+        <v>24</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3186,10 +3452,14 @@
         <v>437706.7685078431</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J79" t="n">
+        <v>24</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3223,10 +3493,14 @@
         <v>437706.7685078431</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J80" t="n">
+        <v>24</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3260,10 +3534,14 @@
         <v>437706.7685078431</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J81" t="n">
+        <v>24</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3297,10 +3575,14 @@
         <v>418045.0703078431</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J82" t="n">
+        <v>24</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3334,10 +3616,14 @@
         <v>360595.5262078431</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>24</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3371,10 +3657,14 @@
         <v>360595.5262078431</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>24</v>
+      </c>
+      <c r="J84" t="n">
+        <v>24</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3408,10 +3698,14 @@
         <v>426327.6787078431</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>24</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3445,10 +3739,14 @@
         <v>407757.0552078431</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J86" t="n">
+        <v>24</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3482,10 +3780,14 @@
         <v>437625.0951078431</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J87" t="n">
+        <v>24</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3519,10 +3821,14 @@
         <v>437625.0951078431</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>24</v>
+      </c>
+      <c r="J88" t="n">
+        <v>24</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3556,10 +3862,14 @@
         <v>437625.0951078431</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>24</v>
+      </c>
+      <c r="J89" t="n">
+        <v>24</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3593,10 +3903,14 @@
         <v>383484.459907843</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>24</v>
+      </c>
+      <c r="J90" t="n">
+        <v>24</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3630,10 +3944,14 @@
         <v>454713.459907843</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J91" t="n">
+        <v>24</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,10 +3985,14 @@
         <v>436570.142107843</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J92" t="n">
+        <v>24</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3704,10 +4026,14 @@
         <v>440627.142107843</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="J93" t="n">
+        <v>24</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3741,10 +4067,14 @@
         <v>444643.142107843</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>24</v>
+      </c>
+      <c r="J94" t="n">
+        <v>24</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3778,10 +4108,14 @@
         <v>434559.815507843</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>24</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3815,10 +4149,14 @@
         <v>544022.823407843</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>24</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3852,10 +4190,14 @@
         <v>613941.823407843</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J97" t="n">
+        <v>24</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3889,10 +4231,14 @@
         <v>613941.823407843</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>24</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3926,10 +4272,14 @@
         <v>613941.823407843</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>24</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3963,10 +4313,14 @@
         <v>792869.709507843</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J100" t="n">
+        <v>24</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4000,10 +4354,14 @@
         <v>792869.709507843</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>24</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4037,10 +4395,14 @@
         <v>874738.211507843</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J102" t="n">
+        <v>24</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4077,7 +4439,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>24</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4114,7 +4478,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>24</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4151,7 +4517,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>24</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4188,7 +4556,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>24</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4225,7 +4595,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>24</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4262,7 +4634,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>24</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4299,7 +4673,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>24</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4333,10 +4709,14 @@
         <v>821826.7585078429</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J110" t="n">
+        <v>24</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4370,10 +4750,14 @@
         <v>739958.2566078429</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J111" t="n">
+        <v>24</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4407,10 +4791,14 @@
         <v>739968.2566078429</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="J112" t="n">
+        <v>24</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4447,7 +4835,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>24</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4484,7 +4874,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>24</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4521,7 +4913,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>24</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4558,7 +4952,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>24</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4595,7 +4991,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>24</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4632,7 +5030,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>24</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4669,7 +5069,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>24</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4706,7 +5108,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>24</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4743,7 +5147,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>24</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4780,7 +5186,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>24</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4817,7 +5225,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>24</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4854,7 +5264,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>24</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4891,7 +5303,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>24</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4928,7 +5342,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>24</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4965,7 +5381,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>24</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5002,7 +5420,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>24</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5039,7 +5459,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>24</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5076,7 +5498,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>24</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5113,7 +5537,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>24</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5150,7 +5576,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>24</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5187,7 +5615,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>24</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5224,7 +5654,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>24</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5261,7 +5693,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>24</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5298,7 +5732,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>24</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5335,7 +5771,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>24</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5372,7 +5810,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>24</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5409,7 +5849,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>24</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5446,7 +5888,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>24</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5483,7 +5927,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>24</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5520,7 +5966,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>24</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5557,7 +6005,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>24</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5594,7 +6044,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>24</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5631,7 +6083,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>24</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5668,7 +6122,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>24</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5702,413 +6158,491 @@
         <v>1043939.395233845</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>24</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>71781.70790039841</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1043939.395233845</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>24</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C149" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D149" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="E149" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="F149" t="n">
+        <v>87796.7274</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1131736.122633845</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>24</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C150" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D150" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E150" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="F150" t="n">
+        <v>59958.3399</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1191694.462533845</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>24</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C151" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E151" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F151" t="n">
+        <v>289056.6825</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1480751.145033845</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>24</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>26</v>
+      </c>
+      <c r="F152" t="n">
+        <v>221044.4107</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1701795.555733845</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>24</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D153" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E153" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="F153" t="n">
+        <v>263814.8861</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1437980.669633845</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>24</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="D154" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E154" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>48239.6047</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1486220.274333845</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>24</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C155" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D155" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E155" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F155" t="n">
+        <v>324607.3447</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1810827.619033845</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>24</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C156" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>27</v>
+      </c>
+      <c r="E156" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>77282.05839999999</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1733545.560633845</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>24</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C157" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="D157" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="E157" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="F157" t="n">
+        <v>68518.2142</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1802063.774833845</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>24</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C158" t="n">
+        <v>27</v>
+      </c>
+      <c r="D158" t="n">
+        <v>27</v>
+      </c>
+      <c r="E158" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F158" t="n">
+        <v>322666.5175</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2124730.292333845</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>24</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>27</v>
+      </c>
+      <c r="C159" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="D159" t="n">
+        <v>27</v>
+      </c>
+      <c r="E159" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F159" t="n">
+        <v>285334.3508022222</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1839395.941531622</v>
+      </c>
+      <c r="H159" t="n">
         <v>2</v>
       </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>24</v>
+      </c>
+      <c r="K159" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="C148" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="D148" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="E148" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="F148" t="n">
-        <v>71781.70790039841</v>
-      </c>
-      <c r="G148" t="n">
-        <v>1043939.395233845</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="C149" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="D149" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="E149" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="F149" t="n">
-        <v>87796.7274</v>
-      </c>
-      <c r="G149" t="n">
-        <v>1131736.122633845</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="C150" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="D150" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E150" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="F150" t="n">
-        <v>59958.3399</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1191694.462533845</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="C151" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="D151" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="E151" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="F151" t="n">
-        <v>289056.6825</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1480751.145033845</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C152" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D152" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="E152" t="n">
-        <v>26</v>
-      </c>
-      <c r="F152" t="n">
-        <v>221044.4107</v>
-      </c>
-      <c r="G152" t="n">
-        <v>1701795.555733845</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="C153" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="D153" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="E153" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F153" t="n">
-        <v>263814.8861</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1437980.669633845</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="C154" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="D154" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="E154" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="F154" t="n">
-        <v>48239.6047</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1486220.274333845</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="C155" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D155" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="E155" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F155" t="n">
-        <v>324607.3447</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1810827.619033845</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="C156" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D156" t="n">
-        <v>27</v>
-      </c>
-      <c r="E156" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="F156" t="n">
-        <v>77282.05839999999</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1733545.560633845</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C157" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="D157" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="E157" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="F157" t="n">
-        <v>68518.2142</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1802063.774833845</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="C158" t="n">
-        <v>27</v>
-      </c>
-      <c r="D158" t="n">
-        <v>27</v>
-      </c>
-      <c r="E158" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F158" t="n">
-        <v>322666.5175</v>
-      </c>
-      <c r="G158" t="n">
-        <v>2124730.292333845</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>27</v>
-      </c>
-      <c r="C159" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="D159" t="n">
-        <v>27</v>
-      </c>
-      <c r="E159" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="F159" t="n">
-        <v>285334.3508022222</v>
-      </c>
-      <c r="G159" t="n">
-        <v>1839395.941531622</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>1.115833333333333</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1.059071729957806</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6133,7 +6667,7 @@
         <v>1958944.876631622</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6166,7 +6700,7 @@
         <v>1693077.127739029</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6199,7 +6733,7 @@
         <v>1651212.653139029</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6430,7 +6964,7 @@
         <v>1713436.95963903</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6463,7 +6997,7 @@
         <v>1735013.75023903</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6496,7 +7030,7 @@
         <v>1700510.12163903</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6529,7 +7063,7 @@
         <v>1659588.07483903</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6562,7 +7096,7 @@
         <v>1670700.98843903</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6595,7 +7129,7 @@
         <v>1625662.69153903</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6628,7 +7162,7 @@
         <v>1625662.69153903</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6661,7 +7195,7 @@
         <v>1563959.74293903</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6694,7 +7228,7 @@
         <v>1591716.32183903</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6727,7 +7261,7 @@
         <v>1567879.12623903</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6760,7 +7294,7 @@
         <v>1395073.85863903</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6793,7 +7327,7 @@
         <v>1395073.85863903</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6826,7 +7360,7 @@
         <v>1395073.85863903</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6925,7 +7459,7 @@
         <v>1438173.00603903</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6958,7 +7492,7 @@
         <v>1438173.00603903</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6991,7 +7525,7 @@
         <v>1472671.26043903</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7024,7 +7558,7 @@
         <v>1431436.34213903</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7123,7 +7657,7 @@
         <v>1417848.38593903</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -10918,7 +11452,7 @@
         <v>1068494.702572835</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10951,7 +11485,7 @@
         <v>1057592.292772835</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
